--- a/documentacion/Requerimientos/GTE020PDT002f003_sDesarrollo Apk_Recuento_EC Experimental_18042022.xlsx
+++ b/documentacion/Requerimientos/GTE020PDT002f003_sDesarrollo Apk_Recuento_EC Experimental_18042022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI-PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Dane\2022\repo\dane_recuento_new_2022_personal\documentacion\Requerimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB08F576-5B8D-4663-94BE-A8E1F626A12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39CDB12-BCF4-433D-B244-C238280856BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35355" yWindow="3720" windowWidth="19395" windowHeight="10995" tabRatio="813" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. DatosGenerales" sheetId="8" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="3. DiagramaDeFlujo" sheetId="10" r:id="rId3"/>
     <sheet name="4. EspecificaciónParaOE_Ubica_I" sheetId="12" r:id="rId4"/>
     <sheet name="4. EspecificaciónParaOE_Dir_Nor" sheetId="13" r:id="rId5"/>
-    <sheet name="CAP_I_UBICACION_BARRIDO" sheetId="14" r:id="rId6"/>
-    <sheet name="Hoja3" sheetId="15" r:id="rId7"/>
+    <sheet name="Hoja3" sheetId="15" r:id="rId6"/>
+    <sheet name="CAP_I_UBICACION_BARRIDO" sheetId="14" r:id="rId7"/>
     <sheet name="Perfiles" sheetId="4" state="hidden" r:id="rId8"/>
     <sheet name="Hoja1" sheetId="2" state="hidden" r:id="rId9"/>
     <sheet name="Hoja2" sheetId="3" state="hidden" r:id="rId10"/>
@@ -28,7 +28,7 @@
     <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">CAP_I_UBICACION_BARRIDO!$B$1:$X$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">CAP_I_UBICACION_BARRIDO!$B$1:$X$98</definedName>
     <definedName name="DEPARTAMENTO">'[1]lista departamento y municipio'!$A$2:$A$34</definedName>
     <definedName name="lista">#REF!</definedName>
   </definedNames>
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="700">
   <si>
     <t>SOLICITUD DE DESARROLLO DE SISTEMAS DE INFORMACIÓN</t>
   </si>
@@ -2960,12 +2960,142 @@
   <si>
     <t xml:space="preserve">Complementar la funcionalidad de dirección recursiva en el caso de requerir utilizar la dirección de la unidad anterior para las edificaciones que contengan varias unidades en su interior, así evitar escribir tantas veces la misma dirección principal, como unidades contenga la edificación. </t>
   </si>
+  <si>
+    <r>
+      <t>normalizador</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCFD2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.set</t>
+    </r>
+  </si>
+  <si>
+    <t>DIREC_LET_VP_OTRO</t>
+  </si>
+  <si>
+    <t>DIREC_LET_SVP_OTRO</t>
+  </si>
+  <si>
+    <t>DIREC_LET_VG_OTRO</t>
+  </si>
+  <si>
+    <t>DIREC_LET_SVG_OTRO</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>Direcvp</t>
+  </si>
+  <si>
+    <t>Direcnnomvp</t>
+  </si>
+  <si>
+    <t>Direcnumvp</t>
+  </si>
+  <si>
+    <t>Direcletvp</t>
+  </si>
+  <si>
+    <t>Direcletvpotro</t>
+  </si>
+  <si>
+    <t>Direcsfvp</t>
+  </si>
+  <si>
+    <t>Direcletsvp</t>
+  </si>
+  <si>
+    <t>Direcletsvpotro</t>
+  </si>
+  <si>
+    <t>Direccuadvp</t>
+  </si>
+  <si>
+    <t>Direcnumvg</t>
+  </si>
+  <si>
+    <t>Direcletvg</t>
+  </si>
+  <si>
+    <t>Direcletvgotro</t>
+  </si>
+  <si>
+    <t>Direcsfvg</t>
+  </si>
+  <si>
+    <t>Direcletsvg</t>
+  </si>
+  <si>
+    <t>Direcletsvgotro</t>
+  </si>
+  <si>
+    <t>Direcnumplaca</t>
+  </si>
+  <si>
+    <t>Direccuadvg</t>
+  </si>
+  <si>
+    <t>Direcpcomp</t>
+  </si>
+  <si>
+    <t>Direccomp</t>
+  </si>
+  <si>
+    <t>Directexcom</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>();</t>
+  </si>
+  <si>
+    <r>
+      <t>normalizador</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCFD2D5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.get</t>
+    </r>
+  </si>
+  <si>
+    <t>spinner</t>
+  </si>
+  <si>
+    <t>.setSelection(getIndexSpinnerContains(</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>));</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>.setText(</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3236,8 +3366,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCFD2D5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA782BB"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3298,8 +3446,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="48">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -3840,13 +4006,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF808080"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4063,9 +4257,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4074,16 +4265,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4222,6 +4407,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4457,6 +4651,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5925,7 +6137,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>6259227</xdr:colOff>
+      <xdr:colOff>6265577</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>929203</xdr:rowOff>
     </xdr:to>
@@ -6512,7 +6724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A57" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -8015,7 +8227,7 @@
       <c r="H11" s="197"/>
     </row>
     <row r="12" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="83">
+      <c r="A12" s="80">
         <v>7</v>
       </c>
       <c r="B12" s="200" t="s">
@@ -8647,9 +8859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8794,7 +9006,7 @@
       <c r="M6" s="226"/>
       <c r="N6" s="226"/>
       <c r="O6" s="226"/>
-      <c r="P6" s="81"/>
+      <c r="P6" s="79"/>
     </row>
     <row r="7" spans="1:16" s="66" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="s">
@@ -8845,7 +9057,7 @@
       <c r="C8" s="166"/>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
-      <c r="F8" s="76" t="s">
+      <c r="F8" s="75" t="s">
         <v>531</v>
       </c>
       <c r="G8" s="64" t="s">
@@ -8888,7 +9100,7 @@
       <c r="E9" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="161" t="s">
         <v>295</v>
       </c>
       <c r="G9" s="62" t="s">
@@ -8931,7 +9143,7 @@
         <v>301</v>
       </c>
       <c r="E10" s="62"/>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="161" t="s">
         <v>302</v>
       </c>
       <c r="G10" s="62" t="s">
@@ -8974,7 +9186,7 @@
         <v>308</v>
       </c>
       <c r="E11" s="56"/>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="161" t="s">
         <v>309</v>
       </c>
       <c r="G11" s="62" t="s">
@@ -9017,7 +9229,7 @@
         <v>318</v>
       </c>
       <c r="E12" s="56"/>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="161" t="s">
         <v>319</v>
       </c>
       <c r="G12" s="62" t="s">
@@ -9060,7 +9272,7 @@
         <v>327</v>
       </c>
       <c r="E13" s="56"/>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="161" t="s">
         <v>328</v>
       </c>
       <c r="G13" s="62" t="s">
@@ -9103,7 +9315,7 @@
         <v>338</v>
       </c>
       <c r="E14" s="56"/>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="161" t="s">
         <v>339</v>
       </c>
       <c r="G14" s="62" t="s">
@@ -9146,7 +9358,7 @@
         <v>345</v>
       </c>
       <c r="E15" s="56"/>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="161" t="s">
         <v>346</v>
       </c>
       <c r="G15" s="62" t="s">
@@ -9189,7 +9401,7 @@
         <v>352</v>
       </c>
       <c r="E16" s="56"/>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="161" t="s">
         <v>353</v>
       </c>
       <c r="G16" s="62" t="s">
@@ -9232,7 +9444,7 @@
         <v>357</v>
       </c>
       <c r="E17" s="56"/>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="161" t="s">
         <v>358</v>
       </c>
       <c r="G17" s="62" t="s">
@@ -9275,7 +9487,7 @@
         <v>362</v>
       </c>
       <c r="E18" s="56"/>
-      <c r="F18" s="62" t="s">
+      <c r="F18" s="161" t="s">
         <v>360</v>
       </c>
       <c r="G18" s="62" t="s">
@@ -9318,7 +9530,7 @@
         <v>367</v>
       </c>
       <c r="E19" s="62"/>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="161" t="s">
         <v>368</v>
       </c>
       <c r="G19" s="62" t="s">
@@ -9361,7 +9573,7 @@
         <v>373</v>
       </c>
       <c r="E20" s="56"/>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="161" t="s">
         <v>374</v>
       </c>
       <c r="G20" s="62" t="s">
@@ -9404,7 +9616,7 @@
         <v>387</v>
       </c>
       <c r="E21" s="56"/>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="161" t="s">
         <v>388</v>
       </c>
       <c r="G21" s="62" t="s">
@@ -9447,7 +9659,7 @@
         <v>396</v>
       </c>
       <c r="E22" s="56"/>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="161" t="s">
         <v>397</v>
       </c>
       <c r="G22" s="62" t="s">
@@ -9459,7 +9671,7 @@
       <c r="I22" s="61" t="s">
         <v>409</v>
       </c>
-      <c r="J22" s="61" t="s">
+      <c r="J22" s="250" t="s">
         <v>399</v>
       </c>
       <c r="K22" s="73" t="s">
@@ -9490,7 +9702,7 @@
         <v>411</v>
       </c>
       <c r="E23" s="56"/>
-      <c r="F23" s="62" t="s">
+      <c r="F23" s="161" t="s">
         <v>412</v>
       </c>
       <c r="G23" s="62" t="s">
@@ -9533,7 +9745,7 @@
         <v>413</v>
       </c>
       <c r="E24" s="56"/>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="162" t="s">
         <v>415</v>
       </c>
       <c r="G24" s="62" t="s">
@@ -9574,7 +9786,7 @@
         <v>419</v>
       </c>
       <c r="E25" s="56"/>
-      <c r="F25" s="62" t="s">
+      <c r="F25" s="162" t="s">
         <v>420</v>
       </c>
       <c r="G25" s="62" t="s">
@@ -9615,7 +9827,7 @@
         <v>422</v>
       </c>
       <c r="E26" s="56"/>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="162" t="s">
         <v>424</v>
       </c>
       <c r="G26" s="62" t="s">
@@ -9642,28 +9854,28 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="78" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77" t="s">
+    <row r="27" spans="1:15" s="77" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="76" t="s">
         <v>292</v>
       </c>
       <c r="B27" s="164" t="s">
         <v>541</v>
       </c>
       <c r="C27" s="166"/>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="76" t="s">
         <v>536</v>
       </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77" t="s">
+      <c r="E27" s="76"/>
+      <c r="F27" s="162" t="s">
         <v>542</v>
       </c>
-      <c r="G27" s="77" t="s">
+      <c r="G27" s="76" t="s">
         <v>340</v>
       </c>
-      <c r="H27" s="77" t="s">
+      <c r="H27" s="76" t="s">
         <v>341</v>
       </c>
-      <c r="I27" s="77"/>
+      <c r="I27" s="76"/>
       <c r="J27" s="69" t="s">
         <v>584</v>
       </c>
@@ -9673,7 +9885,7 @@
       <c r="L27" s="61" t="s">
         <v>348</v>
       </c>
-      <c r="M27" s="77">
+      <c r="M27" s="76">
         <v>1</v>
       </c>
       <c r="N27" s="61" t="s">
@@ -9684,7 +9896,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="142.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="76" t="s">
         <v>292</v>
       </c>
       <c r="B28" s="164" t="s">
@@ -9695,13 +9907,13 @@
         <v>589</v>
       </c>
       <c r="E28" s="56"/>
-      <c r="F28" s="77" t="s">
+      <c r="F28" s="161" t="s">
         <v>537</v>
       </c>
-      <c r="G28" s="77" t="s">
+      <c r="G28" s="76" t="s">
         <v>340</v>
       </c>
-      <c r="H28" s="77" t="s">
+      <c r="H28" s="76" t="s">
         <v>341</v>
       </c>
       <c r="I28" s="56"/>
@@ -9714,7 +9926,7 @@
       <c r="L28" s="61" t="s">
         <v>348</v>
       </c>
-      <c r="M28" s="77">
+      <c r="M28" s="76">
         <v>1</v>
       </c>
       <c r="N28" s="61" t="s">
@@ -10035,9 +10247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10181,7 +10393,7 @@
       <c r="M6" s="226"/>
       <c r="N6" s="226"/>
       <c r="O6" s="227"/>
-      <c r="P6" s="81"/>
+      <c r="P6" s="79"/>
     </row>
     <row r="7" spans="1:16" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
@@ -10197,7 +10409,7 @@
       <c r="E7" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="163" t="s">
         <v>430</v>
       </c>
       <c r="G7" s="62" t="s">
@@ -10209,7 +10421,7 @@
       <c r="I7" s="69" t="s">
         <v>591</v>
       </c>
-      <c r="J7" s="69" t="s">
+      <c r="J7" s="74" t="s">
         <v>592</v>
       </c>
       <c r="K7" s="74" t="s">
@@ -10240,7 +10452,7 @@
         <v>308</v>
       </c>
       <c r="E8" s="62"/>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="163" t="s">
         <v>435</v>
       </c>
       <c r="G8" s="62" t="s">
@@ -10249,7 +10461,7 @@
       <c r="H8" s="62" t="s">
         <v>437</v>
       </c>
-      <c r="J8" s="75" t="s">
+      <c r="J8" s="74" t="s">
         <v>436</v>
       </c>
       <c r="K8" s="74" t="s">
@@ -10280,7 +10492,7 @@
         <v>442</v>
       </c>
       <c r="E9" s="62"/>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="163" t="s">
         <v>444</v>
       </c>
       <c r="G9" s="62" t="s">
@@ -10289,10 +10501,10 @@
       <c r="H9" s="62" t="s">
         <v>445</v>
       </c>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="75" t="s">
         <v>594</v>
       </c>
-      <c r="J9" s="79" t="s">
+      <c r="J9" s="74" t="s">
         <v>446</v>
       </c>
       <c r="K9" s="74" t="s">
@@ -10323,7 +10535,7 @@
         <v>450</v>
       </c>
       <c r="E10" s="62"/>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="163" t="s">
         <v>451</v>
       </c>
       <c r="G10" s="62" t="s">
@@ -10332,10 +10544,10 @@
       <c r="H10" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="I10" s="76" t="s">
+      <c r="I10" s="75" t="s">
         <v>507</v>
       </c>
-      <c r="J10" s="73" t="s">
+      <c r="J10" s="74" t="s">
         <v>455</v>
       </c>
       <c r="K10" s="74" t="s">
@@ -10347,7 +10559,7 @@
       <c r="M10" s="62">
         <v>2</v>
       </c>
-      <c r="N10" s="80" t="s">
+      <c r="N10" s="78" t="s">
         <v>456</v>
       </c>
       <c r="O10" s="64" t="s">
@@ -10366,7 +10578,7 @@
         <v>453</v>
       </c>
       <c r="E11" s="62"/>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="163" t="s">
         <v>454</v>
       </c>
       <c r="G11" s="64" t="s">
@@ -10375,10 +10587,10 @@
       <c r="H11" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="I11" s="76" t="s">
+      <c r="I11" s="75" t="s">
         <v>508</v>
       </c>
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="74" t="s">
         <v>596</v>
       </c>
       <c r="K11" s="74" t="s">
@@ -10409,7 +10621,7 @@
         <v>462</v>
       </c>
       <c r="E12" s="62"/>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="163" t="s">
         <v>463</v>
       </c>
       <c r="G12" s="64" t="s">
@@ -10418,7 +10630,7 @@
       <c r="H12" s="64" t="s">
         <v>298</v>
       </c>
-      <c r="I12" s="76" t="s">
+      <c r="I12" s="75" t="s">
         <v>508</v>
       </c>
       <c r="J12" s="74" t="s">
@@ -10433,7 +10645,7 @@
       <c r="M12" s="64">
         <v>2</v>
       </c>
-      <c r="N12" s="80" t="s">
+      <c r="N12" s="78" t="s">
         <v>465</v>
       </c>
       <c r="O12" s="64" t="s">
@@ -10452,7 +10664,7 @@
         <v>467</v>
       </c>
       <c r="E13" s="62"/>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="163" t="s">
         <v>468</v>
       </c>
       <c r="G13" s="64" t="s">
@@ -10461,10 +10673,10 @@
       <c r="H13" s="64" t="s">
         <v>469</v>
       </c>
-      <c r="I13" s="76" t="s">
+      <c r="I13" s="75" t="s">
         <v>508</v>
       </c>
-      <c r="J13" s="69" t="s">
+      <c r="J13" s="74" t="s">
         <v>599</v>
       </c>
       <c r="K13" s="74" t="s">
@@ -10495,7 +10707,7 @@
         <v>470</v>
       </c>
       <c r="E14" s="62"/>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="163" t="s">
         <v>471</v>
       </c>
       <c r="G14" s="64" t="s">
@@ -10504,10 +10716,10 @@
       <c r="H14" s="64" t="s">
         <v>445</v>
       </c>
-      <c r="I14" s="76" t="s">
+      <c r="I14" s="75" t="s">
         <v>508</v>
       </c>
-      <c r="J14" s="79" t="s">
+      <c r="J14" s="74" t="s">
         <v>446</v>
       </c>
       <c r="K14" s="74" t="s">
@@ -10538,7 +10750,7 @@
         <v>475</v>
       </c>
       <c r="E15" s="64"/>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="163" t="s">
         <v>481</v>
       </c>
       <c r="G15" s="64" t="s">
@@ -10547,10 +10759,10 @@
       <c r="H15" s="64" t="s">
         <v>298</v>
       </c>
-      <c r="I15" s="76" t="s">
+      <c r="I15" s="75" t="s">
         <v>508</v>
       </c>
-      <c r="J15" s="73" t="s">
+      <c r="J15" s="74" t="s">
         <v>455</v>
       </c>
       <c r="K15" s="74" t="s">
@@ -10562,7 +10774,7 @@
       <c r="M15" s="64">
         <v>2</v>
       </c>
-      <c r="N15" s="80" t="s">
+      <c r="N15" s="78" t="s">
         <v>485</v>
       </c>
       <c r="O15" s="64" t="s">
@@ -10581,7 +10793,7 @@
         <v>476</v>
       </c>
       <c r="E16" s="64"/>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="163" t="s">
         <v>482</v>
       </c>
       <c r="G16" s="64" t="s">
@@ -10590,10 +10802,10 @@
       <c r="H16" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="I16" s="76" t="s">
+      <c r="I16" s="75" t="s">
         <v>460</v>
       </c>
-      <c r="J16" s="69" t="s">
+      <c r="J16" s="74" t="s">
         <v>596</v>
       </c>
       <c r="K16" s="74" t="s">
@@ -10624,7 +10836,7 @@
         <v>477</v>
       </c>
       <c r="E17" s="64"/>
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="163" t="s">
         <v>483</v>
       </c>
       <c r="G17" s="64" t="s">
@@ -10633,7 +10845,7 @@
       <c r="H17" s="64" t="s">
         <v>298</v>
       </c>
-      <c r="I17" s="76" t="s">
+      <c r="I17" s="75" t="s">
         <v>508</v>
       </c>
       <c r="J17" s="74" t="s">
@@ -10648,7 +10860,7 @@
       <c r="M17" s="64">
         <v>2</v>
       </c>
-      <c r="N17" s="80" t="s">
+      <c r="N17" s="78" t="s">
         <v>487</v>
       </c>
       <c r="O17" s="64" t="s">
@@ -10667,7 +10879,7 @@
         <v>489</v>
       </c>
       <c r="E18" s="62"/>
-      <c r="F18" s="62" t="s">
+      <c r="F18" s="163" t="s">
         <v>491</v>
       </c>
       <c r="G18" s="64" t="s">
@@ -10676,10 +10888,10 @@
       <c r="H18" s="64" t="s">
         <v>445</v>
       </c>
-      <c r="I18" s="76" t="s">
+      <c r="I18" s="75" t="s">
         <v>508</v>
       </c>
-      <c r="J18" s="79" t="s">
+      <c r="J18" s="74" t="s">
         <v>446</v>
       </c>
       <c r="K18" s="74" t="s">
@@ -10710,7 +10922,7 @@
         <v>490</v>
       </c>
       <c r="E19" s="64"/>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="163" t="s">
         <v>497</v>
       </c>
       <c r="G19" s="64" t="s">
@@ -10719,10 +10931,10 @@
       <c r="H19" s="64" t="s">
         <v>355</v>
       </c>
-      <c r="I19" s="76" t="s">
+      <c r="I19" s="75" t="s">
         <v>508</v>
       </c>
-      <c r="J19" s="69" t="s">
+      <c r="J19" s="74" t="s">
         <v>599</v>
       </c>
       <c r="K19" s="74" t="s">
@@ -10753,7 +10965,7 @@
         <v>503</v>
       </c>
       <c r="E20" s="62"/>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="163" t="s">
         <v>504</v>
       </c>
       <c r="G20" s="64" t="s">
@@ -10763,7 +10975,7 @@
         <v>341</v>
       </c>
       <c r="I20" s="62"/>
-      <c r="J20" s="71" t="s">
+      <c r="J20" s="74" t="s">
         <v>601</v>
       </c>
       <c r="K20" s="74" t="s">
@@ -10794,7 +11006,7 @@
         <v>510</v>
       </c>
       <c r="E21" s="62"/>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="163" t="s">
         <v>511</v>
       </c>
       <c r="G21" s="64" t="s">
@@ -10803,10 +11015,10 @@
       <c r="H21" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="I21" s="76" t="s">
+      <c r="I21" s="75" t="s">
         <v>512</v>
       </c>
-      <c r="J21" s="71" t="s">
+      <c r="J21" s="74" t="s">
         <v>602</v>
       </c>
       <c r="K21" s="74" t="s">
@@ -10837,7 +11049,7 @@
         <v>515</v>
       </c>
       <c r="E22" s="62"/>
-      <c r="F22" s="82" t="s">
+      <c r="F22" s="163" t="s">
         <v>516</v>
       </c>
       <c r="G22" s="64" t="s">
@@ -10846,10 +11058,10 @@
       <c r="H22" s="64" t="s">
         <v>517</v>
       </c>
-      <c r="I22" s="76" t="s">
+      <c r="I22" s="75" t="s">
         <v>603</v>
       </c>
-      <c r="J22" s="76" t="s">
+      <c r="J22" s="74" t="s">
         <v>518</v>
       </c>
       <c r="K22" s="74" t="s">
@@ -10861,7 +11073,7 @@
       <c r="M22" s="64">
         <v>2</v>
       </c>
-      <c r="N22" s="76" t="s">
+      <c r="N22" s="75" t="s">
         <v>522</v>
       </c>
       <c r="O22" s="64" t="s">
@@ -11224,13 +11436,1276 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB132EA2-D0DE-463D-82DB-2DAF127E9AAF}">
+  <dimension ref="E5:Q69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50:K69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="10:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="10:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="245" t="s">
+        <v>664</v>
+      </c>
+      <c r="K6" s="246" t="s">
+        <v>671</v>
+      </c>
+      <c r="L6" t="s">
+        <v>669</v>
+      </c>
+      <c r="M6" s="163" t="s">
+        <v>430</v>
+      </c>
+      <c r="N6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="10:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="245" t="s">
+        <v>664</v>
+      </c>
+      <c r="K7" s="247" t="s">
+        <v>672</v>
+      </c>
+      <c r="L7" t="s">
+        <v>669</v>
+      </c>
+      <c r="M7" s="163" t="s">
+        <v>435</v>
+      </c>
+      <c r="N7" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="8" spans="10:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="245" t="s">
+        <v>664</v>
+      </c>
+      <c r="K8" s="247" t="s">
+        <v>673</v>
+      </c>
+      <c r="L8" t="s">
+        <v>669</v>
+      </c>
+      <c r="M8" s="163" t="s">
+        <v>444</v>
+      </c>
+      <c r="N8" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="9" spans="10:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="245" t="s">
+        <v>664</v>
+      </c>
+      <c r="K9" s="247" t="s">
+        <v>674</v>
+      </c>
+      <c r="L9" t="s">
+        <v>669</v>
+      </c>
+      <c r="M9" s="163" t="s">
+        <v>451</v>
+      </c>
+      <c r="N9" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="10" spans="10:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="245" t="s">
+        <v>664</v>
+      </c>
+      <c r="K10" s="247" t="s">
+        <v>675</v>
+      </c>
+      <c r="L10" t="s">
+        <v>669</v>
+      </c>
+      <c r="M10" s="163" t="s">
+        <v>665</v>
+      </c>
+      <c r="N10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="11" spans="10:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="245" t="s">
+        <v>664</v>
+      </c>
+      <c r="K11" s="247" t="s">
+        <v>676</v>
+      </c>
+      <c r="L11" t="s">
+        <v>669</v>
+      </c>
+      <c r="M11" s="163" t="s">
+        <v>454</v>
+      </c>
+      <c r="N11" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="12" spans="10:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="245" t="s">
+        <v>664</v>
+      </c>
+      <c r="K12" s="247" t="s">
+        <v>677</v>
+      </c>
+      <c r="L12" t="s">
+        <v>669</v>
+      </c>
+      <c r="M12" s="163" t="s">
+        <v>463</v>
+      </c>
+      <c r="N12" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="13" spans="10:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="245" t="s">
+        <v>664</v>
+      </c>
+      <c r="K13" s="247" t="s">
+        <v>678</v>
+      </c>
+      <c r="L13" t="s">
+        <v>669</v>
+      </c>
+      <c r="M13" s="163" t="s">
+        <v>666</v>
+      </c>
+      <c r="N13" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="14" spans="10:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="245" t="s">
+        <v>664</v>
+      </c>
+      <c r="K14" s="247" t="s">
+        <v>679</v>
+      </c>
+      <c r="L14" t="s">
+        <v>669</v>
+      </c>
+      <c r="M14" s="163" t="s">
+        <v>468</v>
+      </c>
+      <c r="N14" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="15" spans="10:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="245" t="s">
+        <v>664</v>
+      </c>
+      <c r="K15" s="247" t="s">
+        <v>680</v>
+      </c>
+      <c r="L15" t="s">
+        <v>669</v>
+      </c>
+      <c r="M15" s="163" t="s">
+        <v>471</v>
+      </c>
+      <c r="N15" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="16" spans="10:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="245" t="s">
+        <v>664</v>
+      </c>
+      <c r="K16" s="247" t="s">
+        <v>681</v>
+      </c>
+      <c r="L16" t="s">
+        <v>669</v>
+      </c>
+      <c r="M16" s="163" t="s">
+        <v>481</v>
+      </c>
+      <c r="N16" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="17" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="245" t="s">
+        <v>664</v>
+      </c>
+      <c r="K17" s="247" t="s">
+        <v>682</v>
+      </c>
+      <c r="L17" t="s">
+        <v>669</v>
+      </c>
+      <c r="M17" s="163" t="s">
+        <v>667</v>
+      </c>
+      <c r="N17" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="18" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="245" t="s">
+        <v>664</v>
+      </c>
+      <c r="K18" s="247" t="s">
+        <v>683</v>
+      </c>
+      <c r="L18" t="s">
+        <v>669</v>
+      </c>
+      <c r="M18" s="163" t="s">
+        <v>482</v>
+      </c>
+      <c r="N18" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="19" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="245" t="s">
+        <v>664</v>
+      </c>
+      <c r="K19" s="247" t="s">
+        <v>684</v>
+      </c>
+      <c r="L19" t="s">
+        <v>669</v>
+      </c>
+      <c r="M19" s="163" t="s">
+        <v>483</v>
+      </c>
+      <c r="N19" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="20" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="245" t="s">
+        <v>664</v>
+      </c>
+      <c r="K20" s="247" t="s">
+        <v>685</v>
+      </c>
+      <c r="L20" t="s">
+        <v>669</v>
+      </c>
+      <c r="M20" s="163" t="s">
+        <v>668</v>
+      </c>
+      <c r="N20" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="21" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="245" t="s">
+        <v>664</v>
+      </c>
+      <c r="K21" s="247" t="s">
+        <v>686</v>
+      </c>
+      <c r="L21" t="s">
+        <v>669</v>
+      </c>
+      <c r="M21" s="163" t="s">
+        <v>491</v>
+      </c>
+      <c r="N21" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="22" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="245" t="s">
+        <v>664</v>
+      </c>
+      <c r="K22" s="247" t="s">
+        <v>687</v>
+      </c>
+      <c r="L22" t="s">
+        <v>669</v>
+      </c>
+      <c r="M22" s="163" t="s">
+        <v>497</v>
+      </c>
+      <c r="N22" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="23" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="245" t="s">
+        <v>664</v>
+      </c>
+      <c r="K23" s="247" t="s">
+        <v>688</v>
+      </c>
+      <c r="L23" t="s">
+        <v>669</v>
+      </c>
+      <c r="M23" s="163" t="s">
+        <v>504</v>
+      </c>
+      <c r="N23" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="24" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="245" t="s">
+        <v>664</v>
+      </c>
+      <c r="K24" s="247" t="s">
+        <v>689</v>
+      </c>
+      <c r="L24" t="s">
+        <v>669</v>
+      </c>
+      <c r="M24" s="163" t="s">
+        <v>511</v>
+      </c>
+      <c r="N24" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="25" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="245" t="s">
+        <v>664</v>
+      </c>
+      <c r="K25" s="247" t="s">
+        <v>690</v>
+      </c>
+      <c r="L25" t="s">
+        <v>669</v>
+      </c>
+      <c r="M25" s="163" t="s">
+        <v>516</v>
+      </c>
+      <c r="N25" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="27" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="163" t="s">
+        <v>430</v>
+      </c>
+      <c r="I28" t="s">
+        <v>691</v>
+      </c>
+      <c r="J28" s="245" t="s">
+        <v>693</v>
+      </c>
+      <c r="K28" s="246" t="s">
+        <v>671</v>
+      </c>
+      <c r="L28" t="s">
+        <v>692</v>
+      </c>
+      <c r="P28" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q28" s="163" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="29" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="163" t="s">
+        <v>435</v>
+      </c>
+      <c r="I29" t="s">
+        <v>691</v>
+      </c>
+      <c r="J29" s="245" t="s">
+        <v>693</v>
+      </c>
+      <c r="K29" s="247" t="s">
+        <v>672</v>
+      </c>
+      <c r="L29" t="s">
+        <v>692</v>
+      </c>
+      <c r="P29" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q29" s="163" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="30" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="163" t="s">
+        <v>444</v>
+      </c>
+      <c r="I30" t="s">
+        <v>691</v>
+      </c>
+      <c r="J30" s="245" t="s">
+        <v>693</v>
+      </c>
+      <c r="K30" s="247" t="s">
+        <v>673</v>
+      </c>
+      <c r="L30" t="s">
+        <v>692</v>
+      </c>
+      <c r="P30" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q30" s="163" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="31" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="163" t="s">
+        <v>451</v>
+      </c>
+      <c r="I31" t="s">
+        <v>691</v>
+      </c>
+      <c r="J31" s="245" t="s">
+        <v>693</v>
+      </c>
+      <c r="K31" s="247" t="s">
+        <v>674</v>
+      </c>
+      <c r="L31" t="s">
+        <v>692</v>
+      </c>
+      <c r="P31" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q31" s="163" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="32" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="163" t="s">
+        <v>665</v>
+      </c>
+      <c r="I32" t="s">
+        <v>691</v>
+      </c>
+      <c r="J32" s="245" t="s">
+        <v>693</v>
+      </c>
+      <c r="K32" s="247" t="s">
+        <v>675</v>
+      </c>
+      <c r="L32" t="s">
+        <v>692</v>
+      </c>
+      <c r="P32" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q32" s="163" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="33" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="163" t="s">
+        <v>454</v>
+      </c>
+      <c r="I33" t="s">
+        <v>691</v>
+      </c>
+      <c r="J33" s="245" t="s">
+        <v>693</v>
+      </c>
+      <c r="K33" s="247" t="s">
+        <v>676</v>
+      </c>
+      <c r="L33" t="s">
+        <v>692</v>
+      </c>
+      <c r="P33" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q33" s="163" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="34" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="163" t="s">
+        <v>463</v>
+      </c>
+      <c r="I34" t="s">
+        <v>691</v>
+      </c>
+      <c r="J34" s="245" t="s">
+        <v>693</v>
+      </c>
+      <c r="K34" s="247" t="s">
+        <v>677</v>
+      </c>
+      <c r="L34" t="s">
+        <v>692</v>
+      </c>
+      <c r="P34" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q34" s="163" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="35" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H35" s="163" t="s">
+        <v>666</v>
+      </c>
+      <c r="I35" t="s">
+        <v>691</v>
+      </c>
+      <c r="J35" s="245" t="s">
+        <v>693</v>
+      </c>
+      <c r="K35" s="247" t="s">
+        <v>678</v>
+      </c>
+      <c r="L35" t="s">
+        <v>692</v>
+      </c>
+      <c r="P35" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q35" s="163" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="36" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="163" t="s">
+        <v>468</v>
+      </c>
+      <c r="I36" t="s">
+        <v>691</v>
+      </c>
+      <c r="J36" s="245" t="s">
+        <v>693</v>
+      </c>
+      <c r="K36" s="247" t="s">
+        <v>679</v>
+      </c>
+      <c r="L36" t="s">
+        <v>692</v>
+      </c>
+      <c r="P36" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q36" s="163" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="37" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="163" t="s">
+        <v>471</v>
+      </c>
+      <c r="I37" t="s">
+        <v>691</v>
+      </c>
+      <c r="J37" s="245" t="s">
+        <v>693</v>
+      </c>
+      <c r="K37" s="247" t="s">
+        <v>680</v>
+      </c>
+      <c r="L37" t="s">
+        <v>692</v>
+      </c>
+      <c r="P37" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q37" s="163" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="38" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="163" t="s">
+        <v>481</v>
+      </c>
+      <c r="I38" t="s">
+        <v>691</v>
+      </c>
+      <c r="J38" s="245" t="s">
+        <v>693</v>
+      </c>
+      <c r="K38" s="247" t="s">
+        <v>681</v>
+      </c>
+      <c r="L38" t="s">
+        <v>692</v>
+      </c>
+      <c r="P38" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q38" s="163" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="39" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="163" t="s">
+        <v>667</v>
+      </c>
+      <c r="I39" t="s">
+        <v>691</v>
+      </c>
+      <c r="J39" s="245" t="s">
+        <v>693</v>
+      </c>
+      <c r="K39" s="247" t="s">
+        <v>682</v>
+      </c>
+      <c r="L39" t="s">
+        <v>692</v>
+      </c>
+      <c r="P39" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q39" s="163" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="40" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="163" t="s">
+        <v>482</v>
+      </c>
+      <c r="I40" t="s">
+        <v>691</v>
+      </c>
+      <c r="J40" s="245" t="s">
+        <v>693</v>
+      </c>
+      <c r="K40" s="247" t="s">
+        <v>683</v>
+      </c>
+      <c r="L40" t="s">
+        <v>692</v>
+      </c>
+      <c r="P40" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q40" s="163" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="41" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="163" t="s">
+        <v>483</v>
+      </c>
+      <c r="I41" t="s">
+        <v>691</v>
+      </c>
+      <c r="J41" s="245" t="s">
+        <v>693</v>
+      </c>
+      <c r="K41" s="247" t="s">
+        <v>684</v>
+      </c>
+      <c r="L41" t="s">
+        <v>692</v>
+      </c>
+      <c r="P41" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q41" s="163" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="42" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H42" s="163" t="s">
+        <v>668</v>
+      </c>
+      <c r="I42" t="s">
+        <v>691</v>
+      </c>
+      <c r="J42" s="245" t="s">
+        <v>693</v>
+      </c>
+      <c r="K42" s="247" t="s">
+        <v>685</v>
+      </c>
+      <c r="L42" t="s">
+        <v>692</v>
+      </c>
+      <c r="P42" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q42" s="163" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="43" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="163" t="s">
+        <v>491</v>
+      </c>
+      <c r="I43" t="s">
+        <v>691</v>
+      </c>
+      <c r="J43" s="245" t="s">
+        <v>693</v>
+      </c>
+      <c r="K43" s="247" t="s">
+        <v>686</v>
+      </c>
+      <c r="L43" t="s">
+        <v>692</v>
+      </c>
+      <c r="P43" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q43" s="163" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="44" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="163" t="s">
+        <v>497</v>
+      </c>
+      <c r="I44" t="s">
+        <v>691</v>
+      </c>
+      <c r="J44" s="245" t="s">
+        <v>693</v>
+      </c>
+      <c r="K44" s="247" t="s">
+        <v>687</v>
+      </c>
+      <c r="L44" t="s">
+        <v>692</v>
+      </c>
+      <c r="P44" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q44" s="163" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="45" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="163" t="s">
+        <v>504</v>
+      </c>
+      <c r="I45" t="s">
+        <v>691</v>
+      </c>
+      <c r="J45" s="245" t="s">
+        <v>693</v>
+      </c>
+      <c r="K45" s="247" t="s">
+        <v>688</v>
+      </c>
+      <c r="L45" t="s">
+        <v>692</v>
+      </c>
+      <c r="P45" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q45" s="163" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="46" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H46" s="163" t="s">
+        <v>511</v>
+      </c>
+      <c r="I46" t="s">
+        <v>691</v>
+      </c>
+      <c r="J46" s="245" t="s">
+        <v>693</v>
+      </c>
+      <c r="K46" s="247" t="s">
+        <v>689</v>
+      </c>
+      <c r="L46" t="s">
+        <v>692</v>
+      </c>
+      <c r="P46" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q46" s="163" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="47" spans="8:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="163" t="s">
+        <v>516</v>
+      </c>
+      <c r="I47" t="s">
+        <v>691</v>
+      </c>
+      <c r="J47" s="245" t="s">
+        <v>693</v>
+      </c>
+      <c r="K47" s="247" t="s">
+        <v>690</v>
+      </c>
+      <c r="L47" t="s">
+        <v>692</v>
+      </c>
+      <c r="P47" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q47" s="163" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>694</v>
+      </c>
+      <c r="F50" s="163" t="s">
+        <v>430</v>
+      </c>
+      <c r="G50" t="s">
+        <v>695</v>
+      </c>
+      <c r="H50" s="248" t="str">
+        <f>CONCATENATE(E50,F50)</f>
+        <v>spinnerDIREC_VP</v>
+      </c>
+      <c r="I50" t="s">
+        <v>696</v>
+      </c>
+      <c r="J50" t="str">
+        <f>F50</f>
+        <v>DIREC_VP</v>
+      </c>
+      <c r="K50" s="249" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E51" s="245" t="s">
+        <v>698</v>
+      </c>
+      <c r="F51" s="163" t="s">
+        <v>435</v>
+      </c>
+      <c r="G51" t="s">
+        <v>699</v>
+      </c>
+      <c r="H51" t="str">
+        <f>F51</f>
+        <v>DIREC_NNOM_VP</v>
+      </c>
+      <c r="I51" t="s">
+        <v>670</v>
+      </c>
+      <c r="K51" s="249"/>
+    </row>
+    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E52" s="245" t="s">
+        <v>698</v>
+      </c>
+      <c r="F52" s="163" t="s">
+        <v>444</v>
+      </c>
+      <c r="G52" t="s">
+        <v>699</v>
+      </c>
+      <c r="H52" t="str">
+        <f>F52</f>
+        <v>DIREC_NUM_VP</v>
+      </c>
+      <c r="I52" t="s">
+        <v>670</v>
+      </c>
+      <c r="K52" s="249"/>
+    </row>
+    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>694</v>
+      </c>
+      <c r="F53" s="163" t="s">
+        <v>451</v>
+      </c>
+      <c r="G53" t="s">
+        <v>695</v>
+      </c>
+      <c r="H53" s="248" t="str">
+        <f t="shared" ref="H51:H69" si="0">CONCATENATE(E53,F53)</f>
+        <v>spinnerDIREC_LET_VP</v>
+      </c>
+      <c r="I53" t="s">
+        <v>696</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" ref="H51:J69" si="1">F53</f>
+        <v>DIREC_LET_VP</v>
+      </c>
+      <c r="K53" s="249" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E54" s="245" t="s">
+        <v>698</v>
+      </c>
+      <c r="F54" s="163" t="s">
+        <v>665</v>
+      </c>
+      <c r="G54" t="s">
+        <v>699</v>
+      </c>
+      <c r="H54" t="str">
+        <f>F54</f>
+        <v>DIREC_LET_VP_OTRO</v>
+      </c>
+      <c r="I54" t="s">
+        <v>670</v>
+      </c>
+      <c r="K54" s="249"/>
+    </row>
+    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>694</v>
+      </c>
+      <c r="F55" s="163" t="s">
+        <v>454</v>
+      </c>
+      <c r="G55" t="s">
+        <v>695</v>
+      </c>
+      <c r="H55" s="248" t="str">
+        <f t="shared" si="0"/>
+        <v>spinnerDIREC_SF_VP</v>
+      </c>
+      <c r="I55" t="s">
+        <v>696</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="1"/>
+        <v>DIREC_SF_VP</v>
+      </c>
+      <c r="K55" s="249" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>694</v>
+      </c>
+      <c r="F56" s="163" t="s">
+        <v>463</v>
+      </c>
+      <c r="G56" t="s">
+        <v>695</v>
+      </c>
+      <c r="H56" s="248" t="str">
+        <f t="shared" si="0"/>
+        <v>spinnerDIREC_LET_SVP</v>
+      </c>
+      <c r="I56" t="s">
+        <v>696</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="1"/>
+        <v>DIREC_LET_SVP</v>
+      </c>
+      <c r="K56" s="249" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E57" s="245" t="s">
+        <v>698</v>
+      </c>
+      <c r="F57" s="163" t="s">
+        <v>666</v>
+      </c>
+      <c r="G57" t="s">
+        <v>699</v>
+      </c>
+      <c r="H57" t="str">
+        <f>F57</f>
+        <v>DIREC_LET_SVP_OTRO</v>
+      </c>
+      <c r="I57" t="s">
+        <v>670</v>
+      </c>
+      <c r="K57" s="249"/>
+    </row>
+    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>694</v>
+      </c>
+      <c r="F58" s="163" t="s">
+        <v>468</v>
+      </c>
+      <c r="G58" t="s">
+        <v>695</v>
+      </c>
+      <c r="H58" s="248" t="str">
+        <f t="shared" si="0"/>
+        <v>spinnerDIREC_CUAD_VP</v>
+      </c>
+      <c r="I58" t="s">
+        <v>696</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="1"/>
+        <v>DIREC_CUAD_VP</v>
+      </c>
+      <c r="K58" s="249" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E59" s="245" t="s">
+        <v>698</v>
+      </c>
+      <c r="F59" s="163" t="s">
+        <v>471</v>
+      </c>
+      <c r="G59" t="s">
+        <v>699</v>
+      </c>
+      <c r="H59" t="str">
+        <f>F59</f>
+        <v>DIREC_NUM_VG</v>
+      </c>
+      <c r="I59" t="s">
+        <v>670</v>
+      </c>
+      <c r="K59" s="249"/>
+    </row>
+    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>694</v>
+      </c>
+      <c r="F60" s="163" t="s">
+        <v>481</v>
+      </c>
+      <c r="G60" t="s">
+        <v>695</v>
+      </c>
+      <c r="H60" s="248" t="str">
+        <f t="shared" si="0"/>
+        <v>spinnerDIREC_LET_VG</v>
+      </c>
+      <c r="I60" t="s">
+        <v>696</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="1"/>
+        <v>DIREC_LET_VG</v>
+      </c>
+      <c r="K60" s="249" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E61" s="245" t="s">
+        <v>698</v>
+      </c>
+      <c r="F61" s="163" t="s">
+        <v>667</v>
+      </c>
+      <c r="G61" t="s">
+        <v>699</v>
+      </c>
+      <c r="H61" t="str">
+        <f>F61</f>
+        <v>DIREC_LET_VG_OTRO</v>
+      </c>
+      <c r="I61" t="s">
+        <v>670</v>
+      </c>
+      <c r="K61" s="249"/>
+    </row>
+    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>694</v>
+      </c>
+      <c r="F62" s="163" t="s">
+        <v>482</v>
+      </c>
+      <c r="G62" t="s">
+        <v>695</v>
+      </c>
+      <c r="H62" s="248" t="str">
+        <f t="shared" si="0"/>
+        <v>spinnerDIREC_SF_VG</v>
+      </c>
+      <c r="I62" t="s">
+        <v>696</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="1"/>
+        <v>DIREC_SF_VG</v>
+      </c>
+      <c r="K62" s="249" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>694</v>
+      </c>
+      <c r="F63" s="163" t="s">
+        <v>483</v>
+      </c>
+      <c r="G63" t="s">
+        <v>695</v>
+      </c>
+      <c r="H63" s="248" t="str">
+        <f t="shared" si="0"/>
+        <v>spinnerDIREC_LET_SVG</v>
+      </c>
+      <c r="I63" t="s">
+        <v>696</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="1"/>
+        <v>DIREC_LET_SVG</v>
+      </c>
+      <c r="K63" s="249" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E64" s="245" t="s">
+        <v>698</v>
+      </c>
+      <c r="F64" s="163" t="s">
+        <v>668</v>
+      </c>
+      <c r="G64" t="s">
+        <v>699</v>
+      </c>
+      <c r="H64" t="str">
+        <f>F64</f>
+        <v>DIREC_LET_SVG_OTRO</v>
+      </c>
+      <c r="I64" t="s">
+        <v>670</v>
+      </c>
+      <c r="K64" s="249"/>
+    </row>
+    <row r="65" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E65" s="245" t="s">
+        <v>698</v>
+      </c>
+      <c r="F65" s="163" t="s">
+        <v>491</v>
+      </c>
+      <c r="G65" t="s">
+        <v>699</v>
+      </c>
+      <c r="H65" t="str">
+        <f>F65</f>
+        <v>DIREC_NUM_PLACA</v>
+      </c>
+      <c r="I65" t="s">
+        <v>670</v>
+      </c>
+      <c r="K65" s="249"/>
+    </row>
+    <row r="66" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>694</v>
+      </c>
+      <c r="F66" s="163" t="s">
+        <v>497</v>
+      </c>
+      <c r="G66" t="s">
+        <v>695</v>
+      </c>
+      <c r="H66" s="248" t="str">
+        <f t="shared" si="0"/>
+        <v>spinnerDIREC_CUAD_VG</v>
+      </c>
+      <c r="I66" t="s">
+        <v>696</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="1"/>
+        <v>DIREC_CUAD_VG</v>
+      </c>
+      <c r="K66" s="249" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="67" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E67" s="245" t="s">
+        <v>698</v>
+      </c>
+      <c r="F67" s="163" t="s">
+        <v>504</v>
+      </c>
+      <c r="G67" t="s">
+        <v>699</v>
+      </c>
+      <c r="H67" t="str">
+        <f>F67</f>
+        <v>DIREC_P_COMP</v>
+      </c>
+      <c r="I67" t="s">
+        <v>670</v>
+      </c>
+      <c r="K67" s="249"/>
+    </row>
+    <row r="68" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>694</v>
+      </c>
+      <c r="F68" s="163" t="s">
+        <v>511</v>
+      </c>
+      <c r="G68" t="s">
+        <v>695</v>
+      </c>
+      <c r="H68" s="248" t="str">
+        <f t="shared" si="0"/>
+        <v>spinnerDIREC_COMP</v>
+      </c>
+      <c r="I68" t="s">
+        <v>696</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="1"/>
+        <v>DIREC_COMP</v>
+      </c>
+      <c r="K68" s="249" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="69" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E69" s="245" t="s">
+        <v>698</v>
+      </c>
+      <c r="F69" s="163" t="s">
+        <v>516</v>
+      </c>
+      <c r="G69" t="s">
+        <v>699</v>
+      </c>
+      <c r="H69" t="str">
+        <f>F69</f>
+        <v>DIREC_TEX_COM</v>
+      </c>
+      <c r="I69" t="s">
+        <v>670</v>
+      </c>
+      <c r="K69" s="249"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A64" zoomScaleNormal="100" zoomScaleSheetLayoutView="72" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="72" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -11278,82 +12753,82 @@
       <c r="X1" s="230"/>
     </row>
     <row r="2" spans="1:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="84"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
     </row>
     <row r="3" spans="1:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="84"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
     </row>
     <row r="4" spans="1:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
     </row>
     <row r="5" spans="1:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="86"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="231" t="s">
         <v>605</v>
       </c>
@@ -11381,7 +12856,7 @@
       <c r="X5" s="232"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="233" t="s">
         <v>606</v>
       </c>
@@ -11409,999 +12884,999 @@
       <c r="X6" s="234"/>
     </row>
     <row r="7" spans="1:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="86"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="89"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="89"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
     </row>
     <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="86"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="92"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
     </row>
     <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="95"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="97"/>
-      <c r="X10" s="97"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="98"/>
-      <c r="C11" s="99" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="96" t="s">
         <v>607</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="97"/>
-      <c r="X11" s="97"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="98"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="97"/>
-      <c r="U12" s="97"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="97"/>
-      <c r="X12" s="97"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="98"/>
-      <c r="C13" s="101" t="s">
+      <c r="B13" s="95"/>
+      <c r="C13" s="98" t="s">
         <v>608</v>
       </c>
-      <c r="D13" s="101"/>
+      <c r="D13" s="98"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97" t="s">
+      <c r="G13" s="94"/>
+      <c r="H13" s="94" t="s">
         <v>609</v>
       </c>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="97"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="98"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="97"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="97"/>
-      <c r="X14" s="97"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="97"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="98"/>
-      <c r="C15" s="99" t="s">
+      <c r="B15" s="95"/>
+      <c r="C15" s="96" t="s">
         <v>610</v>
       </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="97"/>
-      <c r="V15" s="100"/>
-      <c r="W15" s="97"/>
-      <c r="X15" s="97"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="99"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="97"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="98"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="97"/>
-      <c r="T16" s="97"/>
-      <c r="U16" s="97"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="97"/>
-      <c r="X16" s="97"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="97"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="98"/>
-      <c r="C17" s="101" t="s">
+      <c r="B17" s="95"/>
+      <c r="C17" s="98" t="s">
         <v>611</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="97"/>
-      <c r="S17" s="97"/>
-      <c r="T17" s="97"/>
-      <c r="U17" s="97"/>
-      <c r="V17" s="100"/>
-      <c r="W17" s="97"/>
-      <c r="X17" s="97"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="97"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="98"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
-      <c r="S18" s="97"/>
-      <c r="T18" s="97"/>
-      <c r="U18" s="97"/>
-      <c r="V18" s="100"/>
-      <c r="W18" s="97"/>
-      <c r="X18" s="97"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="97"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="98"/>
-      <c r="C19" s="101" t="s">
+      <c r="B19" s="95"/>
+      <c r="C19" s="98" t="s">
         <v>612</v>
       </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97" t="s">
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94" t="s">
         <v>613</v>
       </c>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="97"/>
-      <c r="S19" s="97"/>
-      <c r="T19" s="97"/>
-      <c r="U19" s="97"/>
-      <c r="V19" s="100"/>
-      <c r="W19" s="97"/>
-      <c r="X19" s="97"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="97"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="98"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="104"/>
-      <c r="N20" s="105"/>
-      <c r="O20" s="97"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="94"/>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
-      <c r="R20" s="97"/>
-      <c r="S20" s="97"/>
-      <c r="T20" s="106"/>
-      <c r="U20" s="97"/>
-      <c r="V20" s="100"/>
-      <c r="W20" s="97"/>
-      <c r="X20" s="97"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="103"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="97"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="98"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="97"/>
-      <c r="T21" s="97"/>
-      <c r="U21" s="97"/>
-      <c r="V21" s="100"/>
-      <c r="W21" s="97"/>
-      <c r="X21" s="97"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="97"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="98"/>
-      <c r="C22" s="101" t="s">
+      <c r="B22" s="95"/>
+      <c r="C22" s="98" t="s">
         <v>614</v>
       </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97" t="s">
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94" t="s">
         <v>613</v>
       </c>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="97"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="100"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="97"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="97"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="98"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="104"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="97"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="94"/>
       <c r="P23" s="22"/>
       <c r="Q23" s="22"/>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
-      <c r="U23" s="97"/>
-      <c r="V23" s="100"/>
-      <c r="W23" s="97"/>
-      <c r="X23" s="97"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="97"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="94"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="98"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="97"/>
-      <c r="S24" s="97"/>
-      <c r="T24" s="97"/>
-      <c r="U24" s="97"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="97"/>
-      <c r="X24" s="97"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="94"/>
+      <c r="T24" s="94"/>
+      <c r="U24" s="94"/>
+      <c r="V24" s="97"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="94"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="98"/>
-      <c r="C25" s="101" t="s">
+      <c r="B25" s="95"/>
+      <c r="C25" s="98" t="s">
         <v>615</v>
       </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="97"/>
-      <c r="S25" s="97"/>
-      <c r="T25" s="97"/>
-      <c r="U25" s="97"/>
-      <c r="V25" s="100"/>
-      <c r="W25" s="97"/>
-      <c r="X25" s="97"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="94"/>
+      <c r="U25" s="94"/>
+      <c r="V25" s="97"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="94"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="98"/>
-      <c r="C26" s="107" t="s">
+      <c r="B26" s="95"/>
+      <c r="C26" s="104" t="s">
         <v>616</v>
       </c>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
       <c r="L26" s="22"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="97"/>
-      <c r="S26" s="106"/>
-      <c r="T26" s="97"/>
-      <c r="U26" s="97"/>
-      <c r="V26" s="100"/>
-      <c r="W26" s="97"/>
-      <c r="X26" s="97"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="97"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="94"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="98"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="97"/>
-      <c r="S27" s="106"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="97"/>
-      <c r="V27" s="100"/>
-      <c r="W27" s="97"/>
-      <c r="X27" s="97"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="94"/>
+      <c r="U27" s="94"/>
+      <c r="V27" s="97"/>
+      <c r="W27" s="94"/>
+      <c r="X27" s="94"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="98"/>
-      <c r="C28" s="109" t="s">
+      <c r="B28" s="95"/>
+      <c r="C28" s="106" t="s">
         <v>617</v>
       </c>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="97" t="s">
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94" t="s">
         <v>613</v>
       </c>
-      <c r="Q28" s="97"/>
-      <c r="R28" s="97"/>
-      <c r="S28" s="97"/>
-      <c r="T28" s="97"/>
-      <c r="U28" s="97"/>
-      <c r="V28" s="100"/>
-      <c r="W28" s="97"/>
-      <c r="X28" s="97"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="94"/>
+      <c r="U28" s="94"/>
+      <c r="V28" s="97"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="94"/>
     </row>
     <row r="29" spans="2:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="98"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="104"/>
-      <c r="N29" s="105"/>
-      <c r="O29" s="97"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="94"/>
       <c r="P29" s="22"/>
       <c r="Q29" s="22"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="110" t="s">
+      <c r="R29" s="94"/>
+      <c r="S29" s="107" t="s">
         <v>618</v>
       </c>
-      <c r="T29" s="97"/>
-      <c r="U29" s="97"/>
-      <c r="V29" s="100"/>
-      <c r="W29" s="97"/>
-      <c r="X29" s="97"/>
+      <c r="T29" s="94"/>
+      <c r="U29" s="94"/>
+      <c r="V29" s="97"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="94"/>
     </row>
     <row r="30" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="98"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="97"/>
-      <c r="O30" s="97"/>
-      <c r="P30" s="97"/>
-      <c r="Q30" s="97"/>
-      <c r="R30" s="97"/>
-      <c r="S30" s="97"/>
-      <c r="T30" s="97"/>
-      <c r="U30" s="97"/>
-      <c r="V30" s="100"/>
-      <c r="W30" s="97"/>
-      <c r="X30" s="97"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="94"/>
+      <c r="T30" s="94"/>
+      <c r="U30" s="94"/>
+      <c r="V30" s="97"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="94"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B31" s="98"/>
-      <c r="C31" s="107" t="s">
+      <c r="B31" s="95"/>
+      <c r="C31" s="104" t="s">
         <v>619</v>
       </c>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="K31" s="97"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="K31" s="94"/>
       <c r="L31" s="22"/>
-      <c r="M31" s="97"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="97"/>
-      <c r="P31" s="97"/>
-      <c r="Q31" s="97"/>
-      <c r="R31" s="97"/>
-      <c r="S31" s="97"/>
-      <c r="T31" s="97"/>
-      <c r="U31" s="97"/>
-      <c r="V31" s="100"/>
-      <c r="W31" s="97"/>
-      <c r="X31" s="97"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="94"/>
+      <c r="U31" s="94"/>
+      <c r="V31" s="97"/>
+      <c r="W31" s="94"/>
+      <c r="X31" s="94"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B32" s="98"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="97"/>
-      <c r="O32" s="97"/>
-      <c r="P32" s="97"/>
-      <c r="Q32" s="97"/>
-      <c r="R32" s="97"/>
-      <c r="S32" s="97"/>
-      <c r="T32" s="97"/>
-      <c r="U32" s="97"/>
-      <c r="V32" s="100"/>
-      <c r="W32" s="97"/>
-      <c r="X32" s="97"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="97"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="94"/>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B33" s="98"/>
-      <c r="C33" s="97" t="s">
+      <c r="B33" s="95"/>
+      <c r="C33" s="94" t="s">
         <v>620</v>
       </c>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="97"/>
-      <c r="M33" s="97"/>
-      <c r="N33" s="97"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="97" t="s">
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94" t="s">
         <v>613</v>
       </c>
-      <c r="Q33" s="97"/>
-      <c r="R33" s="97"/>
-      <c r="S33" s="97"/>
-      <c r="T33" s="97"/>
-      <c r="U33" s="97"/>
-      <c r="V33" s="100"/>
-      <c r="W33" s="97"/>
-      <c r="X33" s="97"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="97"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B34" s="98"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="104"/>
-      <c r="N34" s="105"/>
-      <c r="O34" s="97"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="102"/>
+      <c r="O34" s="94"/>
       <c r="P34" s="22"/>
       <c r="Q34" s="22"/>
       <c r="R34" s="22"/>
-      <c r="S34" s="97"/>
-      <c r="T34" s="97"/>
-      <c r="U34" s="97"/>
-      <c r="V34" s="100"/>
-      <c r="W34" s="97"/>
-      <c r="X34" s="97"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="94"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="97"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="94"/>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B35" s="98"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="97"/>
-      <c r="N35" s="97"/>
-      <c r="O35" s="97"/>
-      <c r="P35" s="97"/>
-      <c r="Q35" s="97"/>
-      <c r="R35" s="97"/>
-      <c r="S35" s="97"/>
-      <c r="T35" s="97"/>
-      <c r="U35" s="97"/>
-      <c r="V35" s="100"/>
-      <c r="W35" s="97"/>
-      <c r="X35" s="97"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="97"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B36" s="98"/>
-      <c r="C36" s="107" t="s">
+      <c r="B36" s="95"/>
+      <c r="C36" s="104" t="s">
         <v>621</v>
       </c>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="K36" s="97"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="K36" s="94"/>
       <c r="L36" s="22"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="97"/>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="97"/>
-      <c r="R36" s="97"/>
-      <c r="S36" s="97"/>
-      <c r="T36" s="97"/>
-      <c r="U36" s="97"/>
-      <c r="V36" s="100"/>
-      <c r="W36" s="97"/>
-      <c r="X36" s="97"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="94"/>
+      <c r="T36" s="94"/>
+      <c r="U36" s="94"/>
+      <c r="V36" s="97"/>
+      <c r="W36" s="94"/>
+      <c r="X36" s="94"/>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B37" s="98"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="97"/>
-      <c r="P37" s="97"/>
-      <c r="Q37" s="97"/>
-      <c r="R37" s="97"/>
-      <c r="S37" s="97"/>
-      <c r="T37" s="97"/>
-      <c r="U37" s="97"/>
-      <c r="V37" s="100"/>
-      <c r="W37" s="97"/>
-      <c r="X37" s="97"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="94"/>
+      <c r="P37" s="94"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="94"/>
+      <c r="S37" s="94"/>
+      <c r="T37" s="94"/>
+      <c r="U37" s="94"/>
+      <c r="V37" s="97"/>
+      <c r="W37" s="94"/>
+      <c r="X37" s="94"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B38" s="111"/>
-      <c r="C38" s="112" t="s">
+      <c r="B38" s="108"/>
+      <c r="C38" s="109" t="s">
         <v>622</v>
       </c>
-      <c r="D38" s="113"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116"/>
-      <c r="O38" s="116"/>
-      <c r="P38" s="114"/>
-      <c r="Q38" s="114"/>
-      <c r="R38" s="114"/>
-      <c r="S38" s="114"/>
-      <c r="T38" s="114"/>
-      <c r="U38" s="114"/>
-      <c r="V38" s="117"/>
-      <c r="W38" s="97"/>
-      <c r="X38" s="97"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="112"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="113"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="113"/>
+      <c r="P38" s="111"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="111"/>
+      <c r="U38" s="111"/>
+      <c r="V38" s="114"/>
+      <c r="W38" s="94"/>
+      <c r="X38" s="94"/>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B39" s="111"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="118"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
-      <c r="K39" s="114"/>
-      <c r="L39" s="114"/>
-      <c r="M39" s="116"/>
-      <c r="N39" s="116"/>
-      <c r="O39" s="116"/>
-      <c r="P39" s="118"/>
-      <c r="Q39" s="114"/>
-      <c r="R39" s="114"/>
-      <c r="S39" s="114"/>
-      <c r="T39" s="114"/>
-      <c r="U39" s="114"/>
-      <c r="V39" s="117"/>
-      <c r="W39" s="97"/>
-      <c r="X39" s="97"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="113"/>
+      <c r="P39" s="115"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="111"/>
+      <c r="U39" s="111"/>
+      <c r="V39" s="114"/>
+      <c r="W39" s="94"/>
+      <c r="X39" s="94"/>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B40" s="111"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="119" t="s">
+      <c r="B40" s="108"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="116" t="s">
         <v>623</v>
       </c>
-      <c r="E40" s="120"/>
-      <c r="F40" s="121">
+      <c r="E40" s="117"/>
+      <c r="F40" s="118">
         <v>1</v>
       </c>
-      <c r="G40" s="116"/>
-      <c r="H40" s="122" t="s">
+      <c r="G40" s="113"/>
+      <c r="H40" s="119" t="s">
         <v>624</v>
       </c>
-      <c r="I40" s="116"/>
-      <c r="J40" s="116"/>
-      <c r="K40" s="116"/>
-      <c r="L40" s="116"/>
-      <c r="M40" s="116"/>
-      <c r="N40" s="116"/>
-      <c r="O40" s="116" t="s">
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="P40" s="123"/>
-      <c r="Q40" s="121">
+      <c r="P40" s="120"/>
+      <c r="Q40" s="118">
         <v>2</v>
       </c>
-      <c r="R40" s="116"/>
-      <c r="S40" s="122" t="s">
+      <c r="R40" s="113"/>
+      <c r="S40" s="119" t="s">
         <v>625</v>
       </c>
-      <c r="T40" s="116"/>
-      <c r="U40" s="116"/>
-      <c r="V40" s="117"/>
-      <c r="W40" s="97"/>
-      <c r="X40" s="97"/>
+      <c r="T40" s="113"/>
+      <c r="U40" s="113"/>
+      <c r="V40" s="114"/>
+      <c r="W40" s="94"/>
+      <c r="X40" s="94"/>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B41" s="111"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="116"/>
-      <c r="L41" s="118"/>
-      <c r="M41" s="114"/>
-      <c r="N41" s="116"/>
-      <c r="O41" s="116"/>
-      <c r="P41" s="114"/>
-      <c r="Q41" s="114"/>
-      <c r="R41" s="116"/>
-      <c r="S41" s="116"/>
-      <c r="T41" s="116"/>
-      <c r="U41" s="116"/>
-      <c r="V41" s="117"/>
-      <c r="W41" s="97"/>
-      <c r="X41" s="97"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="111"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="111"/>
+      <c r="J41" s="111"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="115"/>
+      <c r="M41" s="111"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="113"/>
+      <c r="P41" s="111"/>
+      <c r="Q41" s="111"/>
+      <c r="R41" s="113"/>
+      <c r="S41" s="113"/>
+      <c r="T41" s="113"/>
+      <c r="U41" s="113"/>
+      <c r="V41" s="114"/>
+      <c r="W41" s="94"/>
+      <c r="X41" s="94"/>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B42" s="111"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="124" t="s">
+      <c r="B42" s="108"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="121" t="s">
         <v>626</v>
       </c>
-      <c r="F42" s="116"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="116"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="121">
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="113"/>
+      <c r="L42" s="117"/>
+      <c r="M42" s="118">
         <v>1</v>
       </c>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="114"/>
-      <c r="V42" s="117"/>
-      <c r="W42" s="97"/>
-      <c r="X42" s="97"/>
+      <c r="N42" s="113"/>
+      <c r="O42" s="113"/>
+      <c r="P42" s="113"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="111"/>
+      <c r="S42" s="111"/>
+      <c r="T42" s="111"/>
+      <c r="U42" s="111"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="94"/>
+      <c r="X42" s="94"/>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B43" s="111"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="114"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="116"/>
-      <c r="M43" s="116"/>
-      <c r="N43" s="114"/>
-      <c r="O43" s="114"/>
-      <c r="P43" s="116"/>
-      <c r="Q43" s="116"/>
-      <c r="R43" s="116"/>
-      <c r="S43" s="116"/>
-      <c r="T43" s="116"/>
-      <c r="U43" s="116"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="97"/>
-      <c r="X43" s="97"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="113"/>
+      <c r="M43" s="113"/>
+      <c r="N43" s="111"/>
+      <c r="O43" s="111"/>
+      <c r="P43" s="113"/>
+      <c r="Q43" s="113"/>
+      <c r="R43" s="113"/>
+      <c r="S43" s="113"/>
+      <c r="T43" s="113"/>
+      <c r="U43" s="113"/>
+      <c r="V43" s="114"/>
+      <c r="W43" s="94"/>
+      <c r="X43" s="94"/>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B44" s="111"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116" t="s">
+      <c r="B44" s="108"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113" t="s">
         <v>627</v>
       </c>
-      <c r="F44" s="114"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="116" t="s">
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="113" t="s">
         <v>628</v>
       </c>
-      <c r="L44" s="114"/>
-      <c r="M44" s="114"/>
-      <c r="N44" s="114"/>
-      <c r="O44" s="114"/>
-      <c r="P44" s="114"/>
-      <c r="Q44" s="114"/>
-      <c r="R44" s="114"/>
-      <c r="S44" s="114"/>
-      <c r="T44" s="116"/>
-      <c r="U44" s="116"/>
-      <c r="V44" s="117"/>
-      <c r="W44" s="97"/>
-      <c r="X44" s="97"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="111"/>
+      <c r="N44" s="111"/>
+      <c r="O44" s="111"/>
+      <c r="P44" s="111"/>
+      <c r="Q44" s="111"/>
+      <c r="R44" s="111"/>
+      <c r="S44" s="111"/>
+      <c r="T44" s="113"/>
+      <c r="U44" s="113"/>
+      <c r="V44" s="114"/>
+      <c r="W44" s="94"/>
+      <c r="X44" s="94"/>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B45" s="111"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="116"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="113"/>
       <c r="K45" s="235"/>
       <c r="L45" s="236"/>
       <c r="M45" s="236"/>
@@ -12413,128 +13888,128 @@
       <c r="S45" s="236"/>
       <c r="T45" s="236"/>
       <c r="U45" s="237"/>
-      <c r="V45" s="117"/>
-      <c r="W45" s="97"/>
-      <c r="X45" s="97"/>
+      <c r="V45" s="114"/>
+      <c r="W45" s="94"/>
+      <c r="X45" s="94"/>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B46" s="111"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="113"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
-      <c r="J46" s="114"/>
-      <c r="K46" s="114"/>
-      <c r="L46" s="114"/>
-      <c r="M46" s="114"/>
-      <c r="N46" s="114"/>
-      <c r="O46" s="116"/>
-      <c r="P46" s="118"/>
-      <c r="Q46" s="114"/>
-      <c r="R46" s="114"/>
-      <c r="S46" s="113"/>
-      <c r="T46" s="114"/>
-      <c r="U46" s="113"/>
-      <c r="V46" s="117"/>
-      <c r="W46" s="97"/>
-      <c r="X46" s="97"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="111"/>
+      <c r="O46" s="113"/>
+      <c r="P46" s="115"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="111"/>
+      <c r="S46" s="110"/>
+      <c r="T46" s="111"/>
+      <c r="U46" s="110"/>
+      <c r="V46" s="114"/>
+      <c r="W46" s="94"/>
+      <c r="X46" s="94"/>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B47" s="111"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="124" t="s">
+      <c r="B47" s="108"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="121" t="s">
         <v>629</v>
       </c>
-      <c r="F47" s="116"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="116"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="116"/>
-      <c r="L47" s="116"/>
-      <c r="M47" s="116"/>
-      <c r="N47" s="114"/>
-      <c r="O47" s="116"/>
-      <c r="P47" s="120"/>
-      <c r="Q47" s="121">
+      <c r="F47" s="113"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="113"/>
+      <c r="L47" s="113"/>
+      <c r="M47" s="113"/>
+      <c r="N47" s="111"/>
+      <c r="O47" s="113"/>
+      <c r="P47" s="117"/>
+      <c r="Q47" s="118">
         <v>2</v>
       </c>
-      <c r="R47" s="116"/>
-      <c r="S47" s="116"/>
-      <c r="T47" s="116"/>
-      <c r="U47" s="116"/>
-      <c r="V47" s="117"/>
-      <c r="W47" s="97"/>
-      <c r="X47" s="97"/>
+      <c r="R47" s="113"/>
+      <c r="S47" s="113"/>
+      <c r="T47" s="113"/>
+      <c r="U47" s="113"/>
+      <c r="V47" s="114"/>
+      <c r="W47" s="94"/>
+      <c r="X47" s="94"/>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B48" s="111"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="116"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="116"/>
-      <c r="I48" s="116"/>
-      <c r="J48" s="116"/>
-      <c r="K48" s="116"/>
-      <c r="L48" s="116"/>
-      <c r="M48" s="116"/>
-      <c r="N48" s="114"/>
-      <c r="O48" s="114"/>
-      <c r="P48" s="114"/>
-      <c r="Q48" s="114"/>
-      <c r="R48" s="116"/>
-      <c r="S48" s="116"/>
-      <c r="T48" s="116"/>
-      <c r="U48" s="116"/>
-      <c r="V48" s="117"/>
-      <c r="W48" s="97"/>
-      <c r="X48" s="97"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="113"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="113"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="113"/>
+      <c r="L48" s="113"/>
+      <c r="M48" s="113"/>
+      <c r="N48" s="111"/>
+      <c r="O48" s="111"/>
+      <c r="P48" s="111"/>
+      <c r="Q48" s="111"/>
+      <c r="R48" s="113"/>
+      <c r="S48" s="113"/>
+      <c r="T48" s="113"/>
+      <c r="U48" s="113"/>
+      <c r="V48" s="114"/>
+      <c r="W48" s="94"/>
+      <c r="X48" s="94"/>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B49" s="111"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="116" t="s">
+      <c r="B49" s="108"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="113" t="s">
         <v>630</v>
       </c>
-      <c r="F49" s="114"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="114"/>
-      <c r="J49" s="116"/>
-      <c r="K49" s="116" t="s">
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="113" t="s">
         <v>631</v>
       </c>
-      <c r="L49" s="114"/>
-      <c r="M49" s="114"/>
-      <c r="N49" s="114"/>
-      <c r="O49" s="114"/>
-      <c r="P49" s="114"/>
-      <c r="Q49" s="114"/>
-      <c r="R49" s="114"/>
-      <c r="S49" s="114"/>
-      <c r="T49" s="113"/>
-      <c r="U49" s="113"/>
-      <c r="V49" s="117"/>
-      <c r="W49" s="97"/>
-      <c r="X49" s="97"/>
+      <c r="L49" s="111"/>
+      <c r="M49" s="111"/>
+      <c r="N49" s="111"/>
+      <c r="O49" s="111"/>
+      <c r="P49" s="111"/>
+      <c r="Q49" s="111"/>
+      <c r="R49" s="111"/>
+      <c r="S49" s="111"/>
+      <c r="T49" s="110"/>
+      <c r="U49" s="110"/>
+      <c r="V49" s="114"/>
+      <c r="W49" s="94"/>
+      <c r="X49" s="94"/>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B50" s="111"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="125"/>
-      <c r="I50" s="114"/>
-      <c r="J50" s="114"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="111"/>
       <c r="K50" s="235"/>
       <c r="L50" s="236"/>
       <c r="M50" s="236"/>
@@ -12546,275 +14021,275 @@
       <c r="S50" s="236"/>
       <c r="T50" s="236"/>
       <c r="U50" s="237"/>
-      <c r="V50" s="117"/>
-      <c r="W50" s="97"/>
-      <c r="X50" s="97"/>
+      <c r="V50" s="114"/>
+      <c r="W50" s="94"/>
+      <c r="X50" s="94"/>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B51" s="111"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
-      <c r="J51" s="114"/>
-      <c r="K51" s="114"/>
-      <c r="L51" s="114"/>
-      <c r="M51" s="114"/>
-      <c r="N51" s="114"/>
-      <c r="O51" s="114"/>
-      <c r="P51" s="114"/>
-      <c r="Q51" s="114"/>
-      <c r="R51" s="114"/>
-      <c r="S51" s="113"/>
-      <c r="T51" s="113"/>
-      <c r="U51" s="113"/>
-      <c r="V51" s="126"/>
-      <c r="W51" s="97"/>
-      <c r="X51" s="97"/>
+      <c r="B51" s="108"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="111"/>
+      <c r="L51" s="111"/>
+      <c r="M51" s="111"/>
+      <c r="N51" s="111"/>
+      <c r="O51" s="111"/>
+      <c r="P51" s="111"/>
+      <c r="Q51" s="111"/>
+      <c r="R51" s="111"/>
+      <c r="S51" s="110"/>
+      <c r="T51" s="110"/>
+      <c r="U51" s="110"/>
+      <c r="V51" s="123"/>
+      <c r="W51" s="94"/>
+      <c r="X51" s="94"/>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B52" s="111"/>
-      <c r="C52" s="124" t="s">
+      <c r="B52" s="108"/>
+      <c r="C52" s="121" t="s">
         <v>632</v>
       </c>
-      <c r="D52" s="124"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="116"/>
-      <c r="I52" s="116"/>
-      <c r="J52" s="116"/>
-      <c r="K52" s="116"/>
-      <c r="L52" s="116"/>
-      <c r="M52" s="116"/>
-      <c r="N52" s="116"/>
-      <c r="O52" s="116"/>
-      <c r="P52" s="116"/>
-      <c r="Q52" s="116"/>
-      <c r="R52" s="116"/>
-      <c r="S52" s="113"/>
-      <c r="T52" s="113"/>
-      <c r="U52" s="113"/>
-      <c r="V52" s="127"/>
-      <c r="W52" s="97"/>
-      <c r="X52" s="97"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="121"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="113"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="113"/>
+      <c r="K52" s="113"/>
+      <c r="L52" s="113"/>
+      <c r="M52" s="113"/>
+      <c r="N52" s="113"/>
+      <c r="O52" s="113"/>
+      <c r="P52" s="113"/>
+      <c r="Q52" s="113"/>
+      <c r="R52" s="113"/>
+      <c r="S52" s="110"/>
+      <c r="T52" s="110"/>
+      <c r="U52" s="110"/>
+      <c r="V52" s="124"/>
+      <c r="W52" s="94"/>
+      <c r="X52" s="94"/>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B53" s="111"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
-      <c r="E53" s="116"/>
-      <c r="F53" s="116"/>
-      <c r="G53" s="116"/>
-      <c r="H53" s="116"/>
-      <c r="I53" s="116"/>
-      <c r="J53" s="116"/>
-      <c r="K53" s="116"/>
-      <c r="L53" s="116"/>
-      <c r="M53" s="116"/>
-      <c r="N53" s="116"/>
-      <c r="O53" s="116"/>
-      <c r="P53" s="116"/>
-      <c r="Q53" s="116"/>
-      <c r="R53" s="116"/>
-      <c r="S53" s="116"/>
-      <c r="T53" s="116"/>
-      <c r="U53" s="116"/>
-      <c r="V53" s="127"/>
-      <c r="W53" s="97"/>
-      <c r="X53" s="97"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="113"/>
+      <c r="G53" s="113"/>
+      <c r="H53" s="113"/>
+      <c r="I53" s="113"/>
+      <c r="J53" s="113"/>
+      <c r="K53" s="113"/>
+      <c r="L53" s="113"/>
+      <c r="M53" s="113"/>
+      <c r="N53" s="113"/>
+      <c r="O53" s="113"/>
+      <c r="P53" s="113"/>
+      <c r="Q53" s="113"/>
+      <c r="R53" s="113"/>
+      <c r="S53" s="113"/>
+      <c r="T53" s="113"/>
+      <c r="U53" s="113"/>
+      <c r="V53" s="124"/>
+      <c r="W53" s="94"/>
+      <c r="X53" s="94"/>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B54" s="111"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="128" t="s">
+      <c r="B54" s="108"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="125" t="s">
         <v>633</v>
       </c>
-      <c r="E54" s="116"/>
-      <c r="F54" s="116"/>
-      <c r="G54" s="116"/>
-      <c r="H54" s="116"/>
-      <c r="I54" s="116"/>
-      <c r="J54" s="116"/>
-      <c r="K54" s="116"/>
-      <c r="L54" s="116"/>
-      <c r="M54" s="128" t="s">
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="113"/>
+      <c r="I54" s="113"/>
+      <c r="J54" s="113"/>
+      <c r="K54" s="113"/>
+      <c r="L54" s="113"/>
+      <c r="M54" s="125" t="s">
         <v>634</v>
       </c>
-      <c r="N54" s="116"/>
-      <c r="O54" s="116"/>
-      <c r="P54" s="116"/>
-      <c r="Q54" s="116"/>
-      <c r="R54" s="116"/>
-      <c r="S54" s="116"/>
-      <c r="T54" s="116"/>
-      <c r="U54" s="116"/>
-      <c r="V54" s="127"/>
-      <c r="W54" s="97"/>
-      <c r="X54" s="97"/>
+      <c r="N54" s="113"/>
+      <c r="O54" s="113"/>
+      <c r="P54" s="113"/>
+      <c r="Q54" s="113"/>
+      <c r="R54" s="113"/>
+      <c r="S54" s="113"/>
+      <c r="T54" s="113"/>
+      <c r="U54" s="113"/>
+      <c r="V54" s="124"/>
+      <c r="W54" s="94"/>
+      <c r="X54" s="94"/>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B55" s="111"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="129"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="129"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="116"/>
-      <c r="J55" s="116"/>
-      <c r="K55" s="116"/>
-      <c r="L55" s="116"/>
-      <c r="M55" s="129"/>
-      <c r="N55" s="129"/>
-      <c r="O55" s="116"/>
-      <c r="P55" s="116"/>
-      <c r="Q55" s="116"/>
-      <c r="R55" s="116"/>
-      <c r="S55" s="116"/>
-      <c r="T55" s="116"/>
-      <c r="U55" s="116"/>
-      <c r="V55" s="127"/>
-      <c r="W55" s="97"/>
-      <c r="X55" s="97"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="126"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="113"/>
+      <c r="I55" s="113"/>
+      <c r="J55" s="113"/>
+      <c r="K55" s="113"/>
+      <c r="L55" s="113"/>
+      <c r="M55" s="126"/>
+      <c r="N55" s="126"/>
+      <c r="O55" s="113"/>
+      <c r="P55" s="113"/>
+      <c r="Q55" s="113"/>
+      <c r="R55" s="113"/>
+      <c r="S55" s="113"/>
+      <c r="T55" s="113"/>
+      <c r="U55" s="113"/>
+      <c r="V55" s="124"/>
+      <c r="W55" s="94"/>
+      <c r="X55" s="94"/>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B56" s="111"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
-      <c r="E56" s="116"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="116"/>
-      <c r="I56" s="116"/>
-      <c r="J56" s="116"/>
-      <c r="K56" s="116"/>
-      <c r="L56" s="116"/>
-      <c r="M56" s="116"/>
-      <c r="N56" s="116"/>
-      <c r="O56" s="116"/>
-      <c r="P56" s="116"/>
-      <c r="Q56" s="116"/>
-      <c r="R56" s="130"/>
-      <c r="S56" s="130"/>
-      <c r="T56" s="116"/>
-      <c r="U56" s="116"/>
-      <c r="V56" s="127"/>
-      <c r="W56" s="97"/>
-      <c r="X56" s="97"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="113"/>
+      <c r="F56" s="113"/>
+      <c r="G56" s="113"/>
+      <c r="H56" s="113"/>
+      <c r="I56" s="113"/>
+      <c r="J56" s="113"/>
+      <c r="K56" s="113"/>
+      <c r="L56" s="113"/>
+      <c r="M56" s="113"/>
+      <c r="N56" s="113"/>
+      <c r="O56" s="113"/>
+      <c r="P56" s="113"/>
+      <c r="Q56" s="113"/>
+      <c r="R56" s="127"/>
+      <c r="S56" s="127"/>
+      <c r="T56" s="113"/>
+      <c r="U56" s="113"/>
+      <c r="V56" s="124"/>
+      <c r="W56" s="94"/>
+      <c r="X56" s="94"/>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B57" s="111"/>
-      <c r="C57" s="124" t="s">
+      <c r="B57" s="108"/>
+      <c r="C57" s="121" t="s">
         <v>635</v>
       </c>
-      <c r="D57" s="124"/>
-      <c r="E57" s="124"/>
-      <c r="F57" s="124"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="116"/>
-      <c r="I57" s="116"/>
-      <c r="J57" s="116"/>
-      <c r="K57" s="116"/>
-      <c r="L57" s="116"/>
-      <c r="M57" s="116"/>
-      <c r="N57" s="116"/>
-      <c r="O57" s="116"/>
-      <c r="P57" s="116"/>
-      <c r="Q57" s="116"/>
-      <c r="R57" s="130"/>
-      <c r="S57" s="130"/>
-      <c r="T57" s="116"/>
-      <c r="U57" s="116"/>
-      <c r="V57" s="127"/>
-      <c r="W57" s="97"/>
-      <c r="X57" s="97"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="121"/>
+      <c r="F57" s="121"/>
+      <c r="G57" s="113"/>
+      <c r="H57" s="113"/>
+      <c r="I57" s="113"/>
+      <c r="J57" s="113"/>
+      <c r="K57" s="113"/>
+      <c r="L57" s="113"/>
+      <c r="M57" s="113"/>
+      <c r="N57" s="113"/>
+      <c r="O57" s="113"/>
+      <c r="P57" s="113"/>
+      <c r="Q57" s="113"/>
+      <c r="R57" s="127"/>
+      <c r="S57" s="127"/>
+      <c r="T57" s="113"/>
+      <c r="U57" s="113"/>
+      <c r="V57" s="124"/>
+      <c r="W57" s="94"/>
+      <c r="X57" s="94"/>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B58" s="111"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
-      <c r="E58" s="116"/>
-      <c r="F58" s="116"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="116"/>
-      <c r="I58" s="116"/>
-      <c r="J58" s="116"/>
-      <c r="K58" s="116"/>
-      <c r="L58" s="116"/>
-      <c r="M58" s="116"/>
-      <c r="N58" s="116"/>
-      <c r="O58" s="116"/>
-      <c r="P58" s="116"/>
-      <c r="Q58" s="116"/>
-      <c r="R58" s="116"/>
-      <c r="S58" s="116"/>
-      <c r="T58" s="130"/>
-      <c r="U58" s="130"/>
-      <c r="V58" s="127"/>
-      <c r="W58" s="97"/>
-      <c r="X58" s="97"/>
+      <c r="B58" s="108"/>
+      <c r="C58" s="113"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="113"/>
+      <c r="F58" s="113"/>
+      <c r="G58" s="113"/>
+      <c r="H58" s="113"/>
+      <c r="I58" s="113"/>
+      <c r="J58" s="113"/>
+      <c r="K58" s="113"/>
+      <c r="L58" s="113"/>
+      <c r="M58" s="113"/>
+      <c r="N58" s="113"/>
+      <c r="O58" s="113"/>
+      <c r="P58" s="113"/>
+      <c r="Q58" s="113"/>
+      <c r="R58" s="113"/>
+      <c r="S58" s="113"/>
+      <c r="T58" s="127"/>
+      <c r="U58" s="127"/>
+      <c r="V58" s="124"/>
+      <c r="W58" s="94"/>
+      <c r="X58" s="94"/>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B59" s="111"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="124" t="s">
+      <c r="B59" s="108"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="121" t="s">
         <v>636</v>
       </c>
-      <c r="E59" s="116"/>
-      <c r="F59" s="116"/>
-      <c r="G59" s="116"/>
-      <c r="H59" s="116"/>
-      <c r="I59" s="116"/>
-      <c r="J59" s="116"/>
-      <c r="K59" s="116"/>
-      <c r="L59" s="116"/>
-      <c r="M59" s="124" t="s">
+      <c r="E59" s="113"/>
+      <c r="F59" s="113"/>
+      <c r="G59" s="113"/>
+      <c r="H59" s="113"/>
+      <c r="I59" s="113"/>
+      <c r="J59" s="113"/>
+      <c r="K59" s="113"/>
+      <c r="L59" s="113"/>
+      <c r="M59" s="121" t="s">
         <v>637</v>
       </c>
-      <c r="N59" s="116"/>
-      <c r="O59" s="116"/>
-      <c r="P59" s="116"/>
-      <c r="Q59" s="116"/>
-      <c r="R59" s="116"/>
-      <c r="S59" s="116"/>
-      <c r="T59" s="116"/>
-      <c r="U59" s="130"/>
-      <c r="V59" s="127"/>
-      <c r="W59" s="97"/>
-      <c r="X59" s="97"/>
+      <c r="N59" s="113"/>
+      <c r="O59" s="113"/>
+      <c r="P59" s="113"/>
+      <c r="Q59" s="113"/>
+      <c r="R59" s="113"/>
+      <c r="S59" s="113"/>
+      <c r="T59" s="113"/>
+      <c r="U59" s="127"/>
+      <c r="V59" s="124"/>
+      <c r="W59" s="94"/>
+      <c r="X59" s="94"/>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B60" s="111"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="129"/>
-      <c r="E60" s="129"/>
-      <c r="F60" s="129"/>
-      <c r="G60" s="129"/>
-      <c r="H60" s="129"/>
-      <c r="I60" s="129"/>
-      <c r="J60" s="116"/>
-      <c r="K60" s="116"/>
-      <c r="L60" s="116"/>
-      <c r="M60" s="129"/>
-      <c r="N60" s="129"/>
-      <c r="O60" s="116"/>
-      <c r="P60" s="116"/>
-      <c r="Q60" s="116"/>
-      <c r="R60" s="116"/>
-      <c r="S60" s="116"/>
-      <c r="T60" s="116"/>
-      <c r="U60" s="116"/>
-      <c r="V60" s="131"/>
-      <c r="W60" s="97"/>
-      <c r="X60" s="97"/>
+      <c r="B60" s="108"/>
+      <c r="C60" s="113"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="126"/>
+      <c r="F60" s="126"/>
+      <c r="G60" s="126"/>
+      <c r="H60" s="126"/>
+      <c r="I60" s="126"/>
+      <c r="J60" s="113"/>
+      <c r="K60" s="113"/>
+      <c r="L60" s="113"/>
+      <c r="M60" s="126"/>
+      <c r="N60" s="126"/>
+      <c r="O60" s="113"/>
+      <c r="P60" s="113"/>
+      <c r="Q60" s="113"/>
+      <c r="R60" s="113"/>
+      <c r="S60" s="113"/>
+      <c r="T60" s="113"/>
+      <c r="U60" s="113"/>
+      <c r="V60" s="128"/>
+      <c r="W60" s="94"/>
+      <c r="X60" s="94"/>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B61" s="111"/>
-      <c r="C61" s="116"/>
+      <c r="B61" s="108"/>
+      <c r="C61" s="113"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
@@ -12827,122 +14302,122 @@
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
       <c r="O61" s="16"/>
-      <c r="P61" s="116"/>
-      <c r="Q61" s="116"/>
-      <c r="R61" s="116"/>
-      <c r="S61" s="116"/>
-      <c r="T61" s="116"/>
-      <c r="U61" s="116"/>
-      <c r="V61" s="131"/>
-      <c r="W61" s="97"/>
-      <c r="X61" s="97"/>
+      <c r="P61" s="113"/>
+      <c r="Q61" s="113"/>
+      <c r="R61" s="113"/>
+      <c r="S61" s="113"/>
+      <c r="T61" s="113"/>
+      <c r="U61" s="113"/>
+      <c r="V61" s="128"/>
+      <c r="W61" s="94"/>
+      <c r="X61" s="94"/>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B62" s="111"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
-      <c r="E62" s="116"/>
-      <c r="F62" s="116"/>
-      <c r="G62" s="116"/>
-      <c r="H62" s="116"/>
-      <c r="I62" s="116"/>
-      <c r="J62" s="116"/>
-      <c r="K62" s="116"/>
-      <c r="L62" s="116"/>
-      <c r="M62" s="116"/>
-      <c r="N62" s="116"/>
-      <c r="O62" s="116"/>
-      <c r="P62" s="116"/>
-      <c r="Q62" s="116"/>
-      <c r="R62" s="116"/>
-      <c r="S62" s="116"/>
-      <c r="T62" s="116"/>
-      <c r="U62" s="116"/>
-      <c r="V62" s="127"/>
-      <c r="W62" s="97"/>
-      <c r="X62" s="97"/>
+      <c r="B62" s="108"/>
+      <c r="C62" s="113"/>
+      <c r="D62" s="113"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="113"/>
+      <c r="G62" s="113"/>
+      <c r="H62" s="113"/>
+      <c r="I62" s="113"/>
+      <c r="J62" s="113"/>
+      <c r="K62" s="113"/>
+      <c r="L62" s="113"/>
+      <c r="M62" s="113"/>
+      <c r="N62" s="113"/>
+      <c r="O62" s="113"/>
+      <c r="P62" s="113"/>
+      <c r="Q62" s="113"/>
+      <c r="R62" s="113"/>
+      <c r="S62" s="113"/>
+      <c r="T62" s="113"/>
+      <c r="U62" s="113"/>
+      <c r="V62" s="124"/>
+      <c r="W62" s="94"/>
+      <c r="X62" s="94"/>
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B63" s="111"/>
-      <c r="C63" s="124" t="s">
+      <c r="B63" s="108"/>
+      <c r="C63" s="121" t="s">
         <v>638</v>
       </c>
-      <c r="D63" s="124"/>
-      <c r="E63" s="124"/>
-      <c r="F63" s="124"/>
-      <c r="G63" s="116"/>
-      <c r="H63" s="116"/>
-      <c r="I63" s="116"/>
-      <c r="J63" s="116"/>
-      <c r="K63" s="116"/>
-      <c r="L63" s="116"/>
-      <c r="M63" s="116"/>
-      <c r="N63" s="116"/>
-      <c r="O63" s="116"/>
-      <c r="P63" s="116"/>
-      <c r="Q63" s="116"/>
-      <c r="R63" s="116"/>
-      <c r="S63" s="116"/>
-      <c r="T63" s="116"/>
-      <c r="U63" s="116"/>
-      <c r="V63" s="127"/>
-      <c r="W63" s="97"/>
-      <c r="X63" s="97"/>
+      <c r="D63" s="121"/>
+      <c r="E63" s="121"/>
+      <c r="F63" s="121"/>
+      <c r="G63" s="113"/>
+      <c r="H63" s="113"/>
+      <c r="I63" s="113"/>
+      <c r="J63" s="113"/>
+      <c r="K63" s="113"/>
+      <c r="L63" s="113"/>
+      <c r="M63" s="113"/>
+      <c r="N63" s="113"/>
+      <c r="O63" s="113"/>
+      <c r="P63" s="113"/>
+      <c r="Q63" s="113"/>
+      <c r="R63" s="113"/>
+      <c r="S63" s="113"/>
+      <c r="T63" s="113"/>
+      <c r="U63" s="113"/>
+      <c r="V63" s="124"/>
+      <c r="W63" s="94"/>
+      <c r="X63" s="94"/>
     </row>
     <row r="64" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B64" s="111"/>
-      <c r="C64" s="132"/>
-      <c r="D64" s="132"/>
-      <c r="E64" s="132"/>
-      <c r="F64" s="132"/>
-      <c r="G64" s="132"/>
-      <c r="H64" s="132"/>
-      <c r="I64" s="132"/>
-      <c r="J64" s="132"/>
-      <c r="K64" s="132"/>
-      <c r="L64" s="132"/>
-      <c r="M64" s="132"/>
-      <c r="N64" s="132"/>
-      <c r="O64" s="132"/>
-      <c r="P64" s="132"/>
-      <c r="Q64" s="132"/>
-      <c r="R64" s="132"/>
-      <c r="S64" s="132"/>
-      <c r="T64" s="132"/>
-      <c r="U64" s="130"/>
-      <c r="V64" s="117"/>
-      <c r="W64" s="97"/>
-      <c r="X64" s="97"/>
+      <c r="B64" s="108"/>
+      <c r="C64" s="129"/>
+      <c r="D64" s="129"/>
+      <c r="E64" s="129"/>
+      <c r="F64" s="129"/>
+      <c r="G64" s="129"/>
+      <c r="H64" s="129"/>
+      <c r="I64" s="129"/>
+      <c r="J64" s="129"/>
+      <c r="K64" s="129"/>
+      <c r="L64" s="129"/>
+      <c r="M64" s="129"/>
+      <c r="N64" s="129"/>
+      <c r="O64" s="129"/>
+      <c r="P64" s="129"/>
+      <c r="Q64" s="129"/>
+      <c r="R64" s="129"/>
+      <c r="S64" s="129"/>
+      <c r="T64" s="129"/>
+      <c r="U64" s="127"/>
+      <c r="V64" s="114"/>
+      <c r="W64" s="94"/>
+      <c r="X64" s="94"/>
     </row>
     <row r="65" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B65" s="111"/>
-      <c r="C65" s="133" t="s">
+      <c r="B65" s="108"/>
+      <c r="C65" s="130" t="s">
         <v>639</v>
       </c>
-      <c r="D65" s="132"/>
-      <c r="E65" s="132"/>
-      <c r="F65" s="132"/>
-      <c r="G65" s="132"/>
-      <c r="H65" s="132"/>
-      <c r="I65" s="132"/>
-      <c r="J65" s="132"/>
-      <c r="K65" s="132"/>
-      <c r="L65" s="132"/>
-      <c r="M65" s="132"/>
-      <c r="N65" s="132"/>
-      <c r="O65" s="132"/>
-      <c r="P65" s="132"/>
-      <c r="Q65" s="132"/>
-      <c r="R65" s="134"/>
-      <c r="S65" s="135"/>
-      <c r="T65" s="135"/>
-      <c r="U65" s="136"/>
-      <c r="V65" s="117"/>
-      <c r="W65" s="97"/>
-      <c r="X65" s="97"/>
+      <c r="D65" s="129"/>
+      <c r="E65" s="129"/>
+      <c r="F65" s="129"/>
+      <c r="G65" s="129"/>
+      <c r="H65" s="129"/>
+      <c r="I65" s="129"/>
+      <c r="J65" s="129"/>
+      <c r="K65" s="129"/>
+      <c r="L65" s="129"/>
+      <c r="M65" s="129"/>
+      <c r="N65" s="129"/>
+      <c r="O65" s="129"/>
+      <c r="P65" s="129"/>
+      <c r="Q65" s="129"/>
+      <c r="R65" s="131"/>
+      <c r="S65" s="132"/>
+      <c r="T65" s="132"/>
+      <c r="U65" s="133"/>
+      <c r="V65" s="114"/>
+      <c r="W65" s="94"/>
+      <c r="X65" s="94"/>
     </row>
     <row r="66" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B66" s="111"/>
+      <c r="B66" s="108"/>
       <c r="C66" s="238"/>
       <c r="D66" s="239"/>
       <c r="E66" s="239"/>
@@ -12957,359 +14432,359 @@
       <c r="N66" s="239"/>
       <c r="O66" s="239"/>
       <c r="P66" s="239"/>
-      <c r="Q66" s="137"/>
+      <c r="Q66" s="134"/>
       <c r="R66" s="240"/>
       <c r="S66" s="241"/>
       <c r="T66" s="241"/>
       <c r="U66" s="241"/>
-      <c r="V66" s="117"/>
-      <c r="W66" s="97"/>
-      <c r="X66" s="97"/>
+      <c r="V66" s="114"/>
+      <c r="W66" s="94"/>
+      <c r="X66" s="94"/>
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B67" s="111"/>
-      <c r="C67" s="132"/>
-      <c r="D67" s="132"/>
-      <c r="E67" s="132"/>
-      <c r="F67" s="132"/>
-      <c r="G67" s="132"/>
-      <c r="H67" s="132"/>
-      <c r="I67" s="132"/>
-      <c r="J67" s="132"/>
-      <c r="K67" s="132"/>
-      <c r="L67" s="132"/>
-      <c r="M67" s="132"/>
-      <c r="N67" s="132"/>
-      <c r="O67" s="132"/>
-      <c r="P67" s="132"/>
-      <c r="Q67" s="132"/>
-      <c r="R67" s="132"/>
-      <c r="S67" s="132"/>
-      <c r="T67" s="132"/>
-      <c r="U67" s="130"/>
-      <c r="V67" s="117"/>
-      <c r="W67" s="97"/>
-      <c r="X67" s="97"/>
+      <c r="B67" s="108"/>
+      <c r="C67" s="129"/>
+      <c r="D67" s="129"/>
+      <c r="E67" s="129"/>
+      <c r="F67" s="129"/>
+      <c r="G67" s="129"/>
+      <c r="H67" s="129"/>
+      <c r="I67" s="129"/>
+      <c r="J67" s="129"/>
+      <c r="K67" s="129"/>
+      <c r="L67" s="129"/>
+      <c r="M67" s="129"/>
+      <c r="N67" s="129"/>
+      <c r="O67" s="129"/>
+      <c r="P67" s="129"/>
+      <c r="Q67" s="129"/>
+      <c r="R67" s="129"/>
+      <c r="S67" s="129"/>
+      <c r="T67" s="129"/>
+      <c r="U67" s="127"/>
+      <c r="V67" s="114"/>
+      <c r="W67" s="94"/>
+      <c r="X67" s="94"/>
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B68" s="111"/>
-      <c r="C68" s="124" t="s">
+      <c r="B68" s="108"/>
+      <c r="C68" s="121" t="s">
         <v>640</v>
       </c>
-      <c r="D68" s="132"/>
-      <c r="E68" s="132"/>
-      <c r="F68" s="132"/>
-      <c r="G68" s="132"/>
-      <c r="H68" s="132"/>
-      <c r="I68" s="132"/>
-      <c r="J68" s="132"/>
-      <c r="K68" s="132"/>
-      <c r="L68" s="132" t="s">
+      <c r="D68" s="129"/>
+      <c r="E68" s="129"/>
+      <c r="F68" s="129"/>
+      <c r="G68" s="129"/>
+      <c r="H68" s="129"/>
+      <c r="I68" s="129"/>
+      <c r="J68" s="129"/>
+      <c r="K68" s="129"/>
+      <c r="L68" s="129" t="s">
         <v>641</v>
       </c>
-      <c r="M68" s="132"/>
-      <c r="N68" s="132"/>
-      <c r="O68" s="132"/>
-      <c r="P68" s="132"/>
-      <c r="Q68" s="132"/>
-      <c r="R68" s="132"/>
-      <c r="S68" s="132"/>
-      <c r="T68" s="132"/>
-      <c r="U68" s="130"/>
-      <c r="V68" s="117"/>
-      <c r="W68" s="97"/>
-      <c r="X68" s="97"/>
+      <c r="M68" s="129"/>
+      <c r="N68" s="129"/>
+      <c r="O68" s="129"/>
+      <c r="P68" s="129"/>
+      <c r="Q68" s="129"/>
+      <c r="R68" s="129"/>
+      <c r="S68" s="129"/>
+      <c r="T68" s="129"/>
+      <c r="U68" s="127"/>
+      <c r="V68" s="114"/>
+      <c r="W68" s="94"/>
+      <c r="X68" s="94"/>
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B69" s="111"/>
-      <c r="C69" s="132"/>
-      <c r="D69" s="132"/>
-      <c r="E69" s="132"/>
-      <c r="F69" s="132"/>
-      <c r="G69" s="132"/>
-      <c r="H69" s="132"/>
-      <c r="I69" s="132"/>
-      <c r="J69" s="132"/>
-      <c r="K69" s="132"/>
-      <c r="L69" s="132"/>
-      <c r="M69" s="132"/>
-      <c r="N69" s="132"/>
-      <c r="O69" s="132"/>
-      <c r="P69" s="132"/>
-      <c r="Q69" s="132"/>
-      <c r="R69" s="132"/>
-      <c r="S69" s="132"/>
-      <c r="T69" s="132"/>
-      <c r="U69" s="130"/>
-      <c r="V69" s="117"/>
-      <c r="W69" s="97"/>
-      <c r="X69" s="97"/>
+      <c r="B69" s="108"/>
+      <c r="C69" s="129"/>
+      <c r="D69" s="129"/>
+      <c r="E69" s="129"/>
+      <c r="F69" s="129"/>
+      <c r="G69" s="129"/>
+      <c r="H69" s="129"/>
+      <c r="I69" s="129"/>
+      <c r="J69" s="129"/>
+      <c r="K69" s="129"/>
+      <c r="L69" s="129"/>
+      <c r="M69" s="129"/>
+      <c r="N69" s="129"/>
+      <c r="O69" s="129"/>
+      <c r="P69" s="129"/>
+      <c r="Q69" s="129"/>
+      <c r="R69" s="129"/>
+      <c r="S69" s="129"/>
+      <c r="T69" s="129"/>
+      <c r="U69" s="127"/>
+      <c r="V69" s="114"/>
+      <c r="W69" s="94"/>
+      <c r="X69" s="94"/>
     </row>
     <row r="70" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B70" s="111"/>
-      <c r="C70" s="132"/>
-      <c r="D70" s="138" t="s">
+      <c r="B70" s="108"/>
+      <c r="C70" s="129"/>
+      <c r="D70" s="135" t="s">
         <v>642</v>
       </c>
-      <c r="E70" s="116"/>
+      <c r="E70" s="113"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="129"/>
-      <c r="H70" s="121">
+      <c r="G70" s="126"/>
+      <c r="H70" s="118">
         <v>1</v>
       </c>
-      <c r="I70" s="132"/>
-      <c r="J70" s="122" t="s">
+      <c r="I70" s="129"/>
+      <c r="J70" s="119" t="s">
         <v>643</v>
       </c>
-      <c r="K70" s="116"/>
-      <c r="L70" s="116"/>
-      <c r="M70" s="132"/>
-      <c r="N70" s="132"/>
-      <c r="O70" s="132"/>
-      <c r="P70" s="132"/>
-      <c r="Q70" s="132"/>
-      <c r="R70" s="132"/>
-      <c r="S70" s="132"/>
-      <c r="T70" s="132"/>
-      <c r="U70" s="130"/>
-      <c r="V70" s="117"/>
-      <c r="W70" s="97"/>
-      <c r="X70" s="97"/>
+      <c r="K70" s="113"/>
+      <c r="L70" s="113"/>
+      <c r="M70" s="129"/>
+      <c r="N70" s="129"/>
+      <c r="O70" s="129"/>
+      <c r="P70" s="129"/>
+      <c r="Q70" s="129"/>
+      <c r="R70" s="129"/>
+      <c r="S70" s="129"/>
+      <c r="T70" s="129"/>
+      <c r="U70" s="127"/>
+      <c r="V70" s="114"/>
+      <c r="W70" s="94"/>
+      <c r="X70" s="94"/>
     </row>
     <row r="71" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B71" s="111"/>
-      <c r="C71" s="132"/>
-      <c r="D71" s="138" t="s">
+      <c r="B71" s="108"/>
+      <c r="C71" s="129"/>
+      <c r="D71" s="135" t="s">
         <v>644</v>
       </c>
-      <c r="E71" s="116"/>
+      <c r="E71" s="113"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="129"/>
-      <c r="H71" s="121">
+      <c r="G71" s="126"/>
+      <c r="H71" s="118">
         <v>2</v>
       </c>
-      <c r="I71" s="132"/>
-      <c r="J71" s="122" t="s">
+      <c r="I71" s="129"/>
+      <c r="J71" s="119" t="s">
         <v>645</v>
       </c>
-      <c r="K71" s="116"/>
-      <c r="L71" s="116"/>
-      <c r="M71" s="132"/>
-      <c r="N71" s="132"/>
-      <c r="O71" s="132"/>
-      <c r="P71" s="132"/>
-      <c r="Q71" s="132"/>
-      <c r="R71" s="132"/>
-      <c r="S71" s="132"/>
-      <c r="T71" s="132"/>
-      <c r="U71" s="130"/>
-      <c r="V71" s="117"/>
-      <c r="W71" s="139"/>
-      <c r="X71" s="139"/>
+      <c r="K71" s="113"/>
+      <c r="L71" s="113"/>
+      <c r="M71" s="129"/>
+      <c r="N71" s="129"/>
+      <c r="O71" s="129"/>
+      <c r="P71" s="129"/>
+      <c r="Q71" s="129"/>
+      <c r="R71" s="129"/>
+      <c r="S71" s="129"/>
+      <c r="T71" s="129"/>
+      <c r="U71" s="127"/>
+      <c r="V71" s="114"/>
+      <c r="W71" s="136"/>
+      <c r="X71" s="136"/>
     </row>
     <row r="72" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B72" s="111"/>
-      <c r="C72" s="132"/>
-      <c r="D72" s="132"/>
-      <c r="E72" s="132"/>
-      <c r="F72" s="132"/>
-      <c r="G72" s="132"/>
-      <c r="H72" s="132"/>
-      <c r="I72" s="132"/>
-      <c r="J72" s="132"/>
-      <c r="K72" s="132"/>
-      <c r="L72" s="132"/>
-      <c r="M72" s="132"/>
-      <c r="N72" s="132"/>
-      <c r="O72" s="132"/>
-      <c r="P72" s="132"/>
-      <c r="Q72" s="132"/>
-      <c r="R72" s="132"/>
-      <c r="S72" s="132"/>
-      <c r="T72" s="132"/>
-      <c r="U72" s="130"/>
-      <c r="V72" s="117"/>
-      <c r="W72" s="139"/>
-      <c r="X72" s="139"/>
+      <c r="B72" s="108"/>
+      <c r="C72" s="129"/>
+      <c r="D72" s="129"/>
+      <c r="E72" s="129"/>
+      <c r="F72" s="129"/>
+      <c r="G72" s="129"/>
+      <c r="H72" s="129"/>
+      <c r="I72" s="129"/>
+      <c r="J72" s="129"/>
+      <c r="K72" s="129"/>
+      <c r="L72" s="129"/>
+      <c r="M72" s="129"/>
+      <c r="N72" s="129"/>
+      <c r="O72" s="129"/>
+      <c r="P72" s="129"/>
+      <c r="Q72" s="129"/>
+      <c r="R72" s="129"/>
+      <c r="S72" s="129"/>
+      <c r="T72" s="129"/>
+      <c r="U72" s="127"/>
+      <c r="V72" s="114"/>
+      <c r="W72" s="136"/>
+      <c r="X72" s="136"/>
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B73" s="111"/>
-      <c r="C73" s="124" t="s">
+      <c r="B73" s="108"/>
+      <c r="C73" s="121" t="s">
         <v>646</v>
       </c>
-      <c r="D73" s="116"/>
-      <c r="E73" s="116"/>
-      <c r="F73" s="116"/>
-      <c r="G73" s="132"/>
-      <c r="H73" s="132"/>
-      <c r="I73" s="132"/>
-      <c r="J73" s="132"/>
-      <c r="K73" s="132"/>
-      <c r="L73" s="132"/>
-      <c r="M73" s="132"/>
-      <c r="N73" s="132"/>
-      <c r="O73" s="132"/>
-      <c r="P73" s="132"/>
-      <c r="Q73" s="132"/>
-      <c r="R73" s="132"/>
-      <c r="S73" s="132"/>
-      <c r="T73" s="132"/>
-      <c r="U73" s="130"/>
-      <c r="V73" s="117"/>
-      <c r="W73" s="97"/>
-      <c r="X73" s="97"/>
+      <c r="D73" s="113"/>
+      <c r="E73" s="113"/>
+      <c r="F73" s="113"/>
+      <c r="G73" s="129"/>
+      <c r="H73" s="129"/>
+      <c r="I73" s="129"/>
+      <c r="J73" s="129"/>
+      <c r="K73" s="129"/>
+      <c r="L73" s="129"/>
+      <c r="M73" s="129"/>
+      <c r="N73" s="129"/>
+      <c r="O73" s="129"/>
+      <c r="P73" s="129"/>
+      <c r="Q73" s="129"/>
+      <c r="R73" s="129"/>
+      <c r="S73" s="129"/>
+      <c r="T73" s="129"/>
+      <c r="U73" s="127"/>
+      <c r="V73" s="114"/>
+      <c r="W73" s="94"/>
+      <c r="X73" s="94"/>
     </row>
     <row r="74" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B74" s="111"/>
-      <c r="C74" s="132"/>
-      <c r="D74" s="116"/>
-      <c r="E74" s="116"/>
-      <c r="F74" s="116"/>
-      <c r="G74" s="132"/>
-      <c r="H74" s="132"/>
-      <c r="I74" s="132"/>
-      <c r="J74" s="132"/>
-      <c r="K74" s="132"/>
-      <c r="L74" s="132"/>
-      <c r="M74" s="132"/>
-      <c r="N74" s="132"/>
-      <c r="O74" s="132"/>
-      <c r="P74" s="132"/>
-      <c r="Q74" s="132"/>
-      <c r="R74" s="132"/>
-      <c r="S74" s="132"/>
-      <c r="T74" s="132"/>
-      <c r="U74" s="130"/>
-      <c r="V74" s="117"/>
-      <c r="W74" s="97"/>
-      <c r="X74" s="97"/>
+      <c r="B74" s="108"/>
+      <c r="C74" s="129"/>
+      <c r="D74" s="113"/>
+      <c r="E74" s="113"/>
+      <c r="F74" s="113"/>
+      <c r="G74" s="129"/>
+      <c r="H74" s="129"/>
+      <c r="I74" s="129"/>
+      <c r="J74" s="129"/>
+      <c r="K74" s="129"/>
+      <c r="L74" s="129"/>
+      <c r="M74" s="129"/>
+      <c r="N74" s="129"/>
+      <c r="O74" s="129"/>
+      <c r="P74" s="129"/>
+      <c r="Q74" s="129"/>
+      <c r="R74" s="129"/>
+      <c r="S74" s="129"/>
+      <c r="T74" s="129"/>
+      <c r="U74" s="127"/>
+      <c r="V74" s="114"/>
+      <c r="W74" s="94"/>
+      <c r="X74" s="94"/>
     </row>
     <row r="75" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B75" s="111"/>
-      <c r="C75" s="132"/>
-      <c r="D75" s="116" t="s">
+      <c r="B75" s="108"/>
+      <c r="C75" s="129"/>
+      <c r="D75" s="113" t="s">
         <v>647</v>
       </c>
-      <c r="E75" s="116"/>
+      <c r="E75" s="113"/>
       <c r="F75" s="16"/>
-      <c r="G75" s="129"/>
-      <c r="H75" s="121">
+      <c r="G75" s="126"/>
+      <c r="H75" s="118">
         <v>1</v>
       </c>
-      <c r="I75" s="132"/>
-      <c r="J75" s="132"/>
-      <c r="K75" s="132"/>
-      <c r="L75" s="132"/>
-      <c r="M75" s="132"/>
-      <c r="N75" s="132"/>
-      <c r="O75" s="132"/>
-      <c r="P75" s="132"/>
-      <c r="Q75" s="132"/>
-      <c r="R75" s="132"/>
-      <c r="S75" s="132"/>
-      <c r="T75" s="132"/>
-      <c r="U75" s="130"/>
-      <c r="V75" s="117"/>
-      <c r="W75" s="97"/>
-      <c r="X75" s="97"/>
+      <c r="I75" s="129"/>
+      <c r="J75" s="129"/>
+      <c r="K75" s="129"/>
+      <c r="L75" s="129"/>
+      <c r="M75" s="129"/>
+      <c r="N75" s="129"/>
+      <c r="O75" s="129"/>
+      <c r="P75" s="129"/>
+      <c r="Q75" s="129"/>
+      <c r="R75" s="129"/>
+      <c r="S75" s="129"/>
+      <c r="T75" s="129"/>
+      <c r="U75" s="127"/>
+      <c r="V75" s="114"/>
+      <c r="W75" s="94"/>
+      <c r="X75" s="94"/>
     </row>
     <row r="76" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B76" s="111"/>
-      <c r="C76" s="132"/>
-      <c r="D76" s="116" t="s">
+      <c r="B76" s="108"/>
+      <c r="C76" s="129"/>
+      <c r="D76" s="113" t="s">
         <v>648</v>
       </c>
-      <c r="E76" s="116"/>
+      <c r="E76" s="113"/>
       <c r="F76" s="16"/>
-      <c r="G76" s="129"/>
-      <c r="H76" s="121">
+      <c r="G76" s="126"/>
+      <c r="H76" s="118">
         <v>2</v>
       </c>
-      <c r="I76" s="132"/>
-      <c r="J76" s="122" t="s">
+      <c r="I76" s="129"/>
+      <c r="J76" s="119" t="s">
         <v>649</v>
       </c>
-      <c r="K76" s="132"/>
-      <c r="L76" s="132"/>
-      <c r="M76" s="132"/>
-      <c r="N76" s="132"/>
-      <c r="O76" s="132"/>
-      <c r="P76" s="132"/>
-      <c r="Q76" s="132"/>
-      <c r="R76" s="132"/>
-      <c r="S76" s="132"/>
-      <c r="T76" s="132"/>
-      <c r="U76" s="130"/>
-      <c r="V76" s="117"/>
-      <c r="W76" s="97"/>
-      <c r="X76" s="97"/>
+      <c r="K76" s="129"/>
+      <c r="L76" s="129"/>
+      <c r="M76" s="129"/>
+      <c r="N76" s="129"/>
+      <c r="O76" s="129"/>
+      <c r="P76" s="129"/>
+      <c r="Q76" s="129"/>
+      <c r="R76" s="129"/>
+      <c r="S76" s="129"/>
+      <c r="T76" s="129"/>
+      <c r="U76" s="127"/>
+      <c r="V76" s="114"/>
+      <c r="W76" s="94"/>
+      <c r="X76" s="94"/>
     </row>
     <row r="77" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B77" s="111"/>
-      <c r="C77" s="132"/>
-      <c r="D77" s="116" t="s">
+      <c r="B77" s="108"/>
+      <c r="C77" s="129"/>
+      <c r="D77" s="113" t="s">
         <v>650</v>
       </c>
-      <c r="E77" s="116"/>
+      <c r="E77" s="113"/>
       <c r="F77" s="16"/>
-      <c r="G77" s="129"/>
-      <c r="H77" s="121">
+      <c r="G77" s="126"/>
+      <c r="H77" s="118">
         <v>3</v>
       </c>
-      <c r="I77" s="132"/>
-      <c r="J77" s="122" t="s">
+      <c r="I77" s="129"/>
+      <c r="J77" s="119" t="s">
         <v>649</v>
       </c>
-      <c r="K77" s="132"/>
-      <c r="L77" s="132"/>
-      <c r="M77" s="132"/>
-      <c r="N77" s="132"/>
-      <c r="O77" s="132"/>
-      <c r="P77" s="132"/>
-      <c r="Q77" s="132"/>
-      <c r="R77" s="132"/>
-      <c r="S77" s="132"/>
-      <c r="T77" s="132"/>
-      <c r="U77" s="130"/>
-      <c r="V77" s="117"/>
-      <c r="W77" s="97"/>
-      <c r="X77" s="97"/>
+      <c r="K77" s="129"/>
+      <c r="L77" s="129"/>
+      <c r="M77" s="129"/>
+      <c r="N77" s="129"/>
+      <c r="O77" s="129"/>
+      <c r="P77" s="129"/>
+      <c r="Q77" s="129"/>
+      <c r="R77" s="129"/>
+      <c r="S77" s="129"/>
+      <c r="T77" s="129"/>
+      <c r="U77" s="127"/>
+      <c r="V77" s="114"/>
+      <c r="W77" s="94"/>
+      <c r="X77" s="94"/>
     </row>
     <row r="78" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B78" s="98"/>
-      <c r="C78" s="140"/>
-      <c r="D78" s="140"/>
-      <c r="E78" s="140"/>
-      <c r="F78" s="140"/>
-      <c r="G78" s="140"/>
-      <c r="H78" s="140"/>
-      <c r="I78" s="140"/>
-      <c r="J78" s="140"/>
-      <c r="K78" s="140"/>
-      <c r="L78" s="140"/>
-      <c r="M78" s="140"/>
-      <c r="N78" s="140"/>
-      <c r="O78" s="140"/>
-      <c r="P78" s="140"/>
-      <c r="Q78" s="140"/>
-      <c r="R78" s="140"/>
-      <c r="S78" s="140"/>
-      <c r="T78" s="140"/>
-      <c r="U78" s="141"/>
-      <c r="V78" s="142"/>
-      <c r="W78" s="97"/>
-      <c r="X78" s="97"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="137"/>
+      <c r="D78" s="137"/>
+      <c r="E78" s="137"/>
+      <c r="F78" s="137"/>
+      <c r="G78" s="137"/>
+      <c r="H78" s="137"/>
+      <c r="I78" s="137"/>
+      <c r="J78" s="137"/>
+      <c r="K78" s="137"/>
+      <c r="L78" s="137"/>
+      <c r="M78" s="137"/>
+      <c r="N78" s="137"/>
+      <c r="O78" s="137"/>
+      <c r="P78" s="137"/>
+      <c r="Q78" s="137"/>
+      <c r="R78" s="137"/>
+      <c r="S78" s="137"/>
+      <c r="T78" s="137"/>
+      <c r="U78" s="138"/>
+      <c r="V78" s="139"/>
+      <c r="W78" s="94"/>
+      <c r="X78" s="94"/>
     </row>
     <row r="79" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B79" s="98"/>
+      <c r="B79" s="95"/>
       <c r="D79" s="39" t="s">
         <v>651</v>
       </c>
-      <c r="E79" s="143"/>
+      <c r="E79" s="140"/>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
       <c r="H79" s="16"/>
-      <c r="I79" s="143" t="s">
+      <c r="I79" s="140" t="s">
         <v>652</v>
       </c>
       <c r="J79" s="16"/>
@@ -13317,42 +14792,42 @@
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
-      <c r="O79" s="144"/>
+      <c r="O79" s="141"/>
       <c r="P79" s="16"/>
       <c r="Q79" s="16"/>
       <c r="R79" s="16"/>
       <c r="S79" s="16"/>
       <c r="T79" s="16"/>
-      <c r="U79" s="145"/>
-      <c r="V79" s="117"/>
-      <c r="W79" s="97"/>
-      <c r="X79" s="97"/>
+      <c r="U79" s="142"/>
+      <c r="V79" s="114"/>
+      <c r="W79" s="94"/>
+      <c r="X79" s="94"/>
     </row>
     <row r="80" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B80" s="98"/>
-      <c r="E80" s="146"/>
-      <c r="F80" s="147"/>
-      <c r="G80" s="148"/>
+      <c r="B80" s="95"/>
+      <c r="E80" s="143"/>
+      <c r="F80" s="144"/>
+      <c r="G80" s="145"/>
       <c r="H80" s="16"/>
-      <c r="I80" s="149"/>
-      <c r="J80" s="150"/>
-      <c r="K80" s="150"/>
-      <c r="L80" s="150"/>
-      <c r="M80" s="150"/>
-      <c r="N80" s="150"/>
-      <c r="O80" s="150"/>
-      <c r="P80" s="150"/>
-      <c r="Q80" s="150"/>
-      <c r="R80" s="150"/>
-      <c r="S80" s="150"/>
-      <c r="T80" s="150"/>
-      <c r="U80" s="151"/>
-      <c r="V80" s="117"/>
-      <c r="W80" s="97"/>
-      <c r="X80" s="97"/>
+      <c r="I80" s="146"/>
+      <c r="J80" s="147"/>
+      <c r="K80" s="147"/>
+      <c r="L80" s="147"/>
+      <c r="M80" s="147"/>
+      <c r="N80" s="147"/>
+      <c r="O80" s="147"/>
+      <c r="P80" s="147"/>
+      <c r="Q80" s="147"/>
+      <c r="R80" s="147"/>
+      <c r="S80" s="147"/>
+      <c r="T80" s="147"/>
+      <c r="U80" s="148"/>
+      <c r="V80" s="114"/>
+      <c r="W80" s="94"/>
+      <c r="X80" s="94"/>
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B81" s="98"/>
+      <c r="B81" s="95"/>
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
@@ -13369,17 +14844,17 @@
       <c r="R81" s="16"/>
       <c r="S81" s="16"/>
       <c r="T81" s="16"/>
-      <c r="U81" s="145"/>
-      <c r="V81" s="117"/>
-      <c r="W81" s="97"/>
-      <c r="X81" s="97"/>
+      <c r="U81" s="142"/>
+      <c r="V81" s="114"/>
+      <c r="W81" s="94"/>
+      <c r="X81" s="94"/>
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B82" s="98"/>
-      <c r="E82" s="143" t="s">
+      <c r="B82" s="95"/>
+      <c r="E82" s="140" t="s">
         <v>653</v>
       </c>
-      <c r="F82" s="143"/>
+      <c r="F82" s="140"/>
       <c r="G82" s="16"/>
       <c r="H82" s="16"/>
       <c r="I82" s="228" t="s">
@@ -13392,48 +14867,48 @@
       <c r="N82" s="228"/>
       <c r="O82" s="228"/>
       <c r="P82" s="16"/>
-      <c r="Q82" s="143" t="s">
+      <c r="Q82" s="140" t="s">
         <v>655</v>
       </c>
       <c r="R82" s="16"/>
       <c r="S82" s="16"/>
       <c r="T82" s="16"/>
       <c r="U82" s="16"/>
-      <c r="V82" s="117"/>
-      <c r="W82" s="97"/>
-      <c r="X82" s="97"/>
+      <c r="V82" s="114"/>
+      <c r="W82" s="94"/>
+      <c r="X82" s="94"/>
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B83" s="98"/>
-      <c r="E83" s="146"/>
-      <c r="F83" s="147"/>
-      <c r="G83" s="148"/>
+      <c r="B83" s="95"/>
+      <c r="E83" s="143"/>
+      <c r="F83" s="144"/>
+      <c r="G83" s="145"/>
       <c r="H83" s="16"/>
-      <c r="I83" s="146"/>
-      <c r="J83" s="147"/>
-      <c r="K83" s="147"/>
-      <c r="L83" s="147"/>
-      <c r="M83" s="147"/>
-      <c r="N83" s="146"/>
-      <c r="O83" s="147"/>
+      <c r="I83" s="143"/>
+      <c r="J83" s="144"/>
+      <c r="K83" s="144"/>
+      <c r="L83" s="144"/>
+      <c r="M83" s="144"/>
+      <c r="N83" s="143"/>
+      <c r="O83" s="144"/>
       <c r="P83" s="16"/>
-      <c r="Q83" s="147"/>
+      <c r="Q83" s="144"/>
       <c r="R83" s="16"/>
       <c r="S83" s="16"/>
       <c r="T83" s="16"/>
       <c r="U83" s="16"/>
-      <c r="V83" s="117"/>
-      <c r="W83" s="97"/>
-      <c r="X83" s="97"/>
+      <c r="V83" s="114"/>
+      <c r="W83" s="94"/>
+      <c r="X83" s="94"/>
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B84" s="98"/>
-      <c r="V84" s="117"/>
-      <c r="W84" s="97"/>
-      <c r="X84" s="97"/>
+      <c r="B84" s="95"/>
+      <c r="V84" s="114"/>
+      <c r="W84" s="94"/>
+      <c r="X84" s="94"/>
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B85" s="98"/>
+      <c r="B85" s="95"/>
       <c r="C85" s="39"/>
       <c r="E85" s="39" t="s">
         <v>656</v>
@@ -13453,18 +14928,18 @@
       <c r="R85" s="16"/>
       <c r="S85" s="16"/>
       <c r="T85" s="16"/>
-      <c r="U85" s="145"/>
-      <c r="V85" s="117"/>
-      <c r="W85" s="97"/>
-      <c r="X85" s="97"/>
+      <c r="U85" s="142"/>
+      <c r="V85" s="114"/>
+      <c r="W85" s="94"/>
+      <c r="X85" s="94"/>
     </row>
     <row r="86" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B86" s="98"/>
-      <c r="E86" s="143" t="s">
+      <c r="B86" s="95"/>
+      <c r="E86" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="F86" s="143"/>
-      <c r="G86" s="144"/>
+      <c r="F86" s="140"/>
+      <c r="G86" s="141"/>
       <c r="H86" s="16"/>
       <c r="I86" s="228" t="s">
         <v>657</v>
@@ -13476,70 +14951,70 @@
       <c r="N86" s="228"/>
       <c r="O86" s="228"/>
       <c r="P86" s="16"/>
-      <c r="Q86" s="143" t="s">
+      <c r="Q86" s="140" t="s">
         <v>658</v>
       </c>
-      <c r="R86" s="144"/>
+      <c r="R86" s="141"/>
       <c r="S86" s="16"/>
       <c r="T86" s="16"/>
-      <c r="U86" s="152" t="s">
+      <c r="U86" s="149" t="s">
         <v>659</v>
       </c>
-      <c r="V86" s="117"/>
-      <c r="W86" s="97"/>
-      <c r="X86" s="97"/>
+      <c r="V86" s="114"/>
+      <c r="W86" s="94"/>
+      <c r="X86" s="94"/>
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B87" s="98"/>
+      <c r="B87" s="95"/>
       <c r="C87" s="39"/>
-      <c r="E87" s="146"/>
-      <c r="F87" s="146"/>
-      <c r="G87" s="147"/>
-      <c r="H87" s="153"/>
-      <c r="I87" s="146"/>
-      <c r="J87" s="147"/>
-      <c r="K87" s="148"/>
-      <c r="L87" s="154"/>
-      <c r="M87" s="147"/>
-      <c r="N87" s="146"/>
-      <c r="O87" s="147"/>
-      <c r="P87" s="153"/>
-      <c r="Q87" s="147"/>
-      <c r="R87" s="146"/>
-      <c r="S87" s="147"/>
+      <c r="E87" s="143"/>
+      <c r="F87" s="143"/>
+      <c r="G87" s="144"/>
+      <c r="H87" s="150"/>
+      <c r="I87" s="143"/>
+      <c r="J87" s="144"/>
+      <c r="K87" s="145"/>
+      <c r="L87" s="151"/>
+      <c r="M87" s="144"/>
+      <c r="N87" s="143"/>
+      <c r="O87" s="144"/>
+      <c r="P87" s="150"/>
+      <c r="Q87" s="144"/>
+      <c r="R87" s="143"/>
+      <c r="S87" s="144"/>
       <c r="T87" s="16"/>
-      <c r="U87" s="147"/>
-      <c r="V87" s="117"/>
-      <c r="W87" s="97"/>
-      <c r="X87" s="97"/>
+      <c r="U87" s="144"/>
+      <c r="V87" s="114"/>
+      <c r="W87" s="94"/>
+      <c r="X87" s="94"/>
     </row>
     <row r="88" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B88" s="98"/>
+      <c r="B88" s="95"/>
       <c r="D88" s="39"/>
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
-      <c r="G88" s="143"/>
-      <c r="H88" s="143"/>
+      <c r="G88" s="140"/>
+      <c r="H88" s="140"/>
       <c r="I88" s="16"/>
       <c r="J88" s="16"/>
-      <c r="K88" s="143"/>
-      <c r="L88" s="143"/>
+      <c r="K88" s="140"/>
+      <c r="L88" s="140"/>
       <c r="M88" s="16"/>
       <c r="N88" s="16"/>
       <c r="O88" s="16"/>
       <c r="P88" s="16"/>
-      <c r="Q88" s="143"/>
-      <c r="R88" s="143"/>
+      <c r="Q88" s="140"/>
+      <c r="R88" s="140"/>
       <c r="S88" s="16"/>
       <c r="T88" s="16"/>
-      <c r="U88" s="143"/>
-      <c r="V88" s="117"/>
-      <c r="W88" s="97"/>
-      <c r="X88" s="97"/>
+      <c r="U88" s="140"/>
+      <c r="V88" s="114"/>
+      <c r="W88" s="94"/>
+      <c r="X88" s="94"/>
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B89" s="98"/>
-      <c r="D89" s="155" t="s">
+      <c r="B89" s="95"/>
+      <c r="D89" s="152" t="s">
         <v>660</v>
       </c>
       <c r="E89" s="16"/>
@@ -13556,82 +15031,82 @@
       <c r="P89" s="16"/>
       <c r="Q89" s="16"/>
       <c r="R89" s="16"/>
-      <c r="S89" s="144"/>
+      <c r="S89" s="141"/>
       <c r="T89" s="16"/>
       <c r="U89" s="16"/>
-      <c r="V89" s="117"/>
-      <c r="W89" s="97"/>
-      <c r="X89" s="97"/>
+      <c r="V89" s="114"/>
+      <c r="W89" s="94"/>
+      <c r="X89" s="94"/>
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B90" s="98"/>
-      <c r="C90" s="156"/>
-      <c r="D90" s="157"/>
-      <c r="E90" s="158"/>
-      <c r="F90" s="158"/>
-      <c r="G90" s="158"/>
-      <c r="H90" s="158"/>
-      <c r="I90" s="158"/>
-      <c r="J90" s="158"/>
-      <c r="K90" s="158"/>
-      <c r="L90" s="158"/>
-      <c r="M90" s="158"/>
-      <c r="N90" s="158"/>
-      <c r="O90" s="158"/>
-      <c r="P90" s="158"/>
-      <c r="Q90" s="158"/>
-      <c r="R90" s="159"/>
-      <c r="V90" s="100"/>
-      <c r="W90" s="97"/>
-      <c r="X90" s="97"/>
+      <c r="B90" s="95"/>
+      <c r="C90" s="153"/>
+      <c r="D90" s="154"/>
+      <c r="E90" s="155"/>
+      <c r="F90" s="155"/>
+      <c r="G90" s="155"/>
+      <c r="H90" s="155"/>
+      <c r="I90" s="155"/>
+      <c r="J90" s="155"/>
+      <c r="K90" s="155"/>
+      <c r="L90" s="155"/>
+      <c r="M90" s="155"/>
+      <c r="N90" s="155"/>
+      <c r="O90" s="155"/>
+      <c r="P90" s="155"/>
+      <c r="Q90" s="155"/>
+      <c r="R90" s="156"/>
+      <c r="V90" s="97"/>
+      <c r="W90" s="94"/>
+      <c r="X90" s="94"/>
     </row>
     <row r="91" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="160"/>
-      <c r="C91" s="161"/>
-      <c r="D91" s="161"/>
-      <c r="E91" s="161"/>
-      <c r="F91" s="161"/>
-      <c r="G91" s="161"/>
-      <c r="H91" s="161"/>
-      <c r="I91" s="161"/>
-      <c r="J91" s="161"/>
-      <c r="K91" s="161"/>
-      <c r="L91" s="161"/>
-      <c r="M91" s="161"/>
-      <c r="N91" s="161"/>
-      <c r="O91" s="161"/>
-      <c r="P91" s="161"/>
-      <c r="Q91" s="161"/>
-      <c r="R91" s="161"/>
-      <c r="S91" s="161"/>
-      <c r="T91" s="161"/>
-      <c r="U91" s="161"/>
-      <c r="V91" s="162"/>
-      <c r="W91" s="97"/>
-      <c r="X91" s="97"/>
+      <c r="B91" s="157"/>
+      <c r="C91" s="158"/>
+      <c r="D91" s="158"/>
+      <c r="E91" s="158"/>
+      <c r="F91" s="158"/>
+      <c r="G91" s="158"/>
+      <c r="H91" s="158"/>
+      <c r="I91" s="158"/>
+      <c r="J91" s="158"/>
+      <c r="K91" s="158"/>
+      <c r="L91" s="158"/>
+      <c r="M91" s="158"/>
+      <c r="N91" s="158"/>
+      <c r="O91" s="158"/>
+      <c r="P91" s="158"/>
+      <c r="Q91" s="158"/>
+      <c r="R91" s="158"/>
+      <c r="S91" s="158"/>
+      <c r="T91" s="158"/>
+      <c r="U91" s="158"/>
+      <c r="V91" s="159"/>
+      <c r="W91" s="94"/>
+      <c r="X91" s="94"/>
     </row>
     <row r="92" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W92" s="97"/>
+      <c r="W92" s="94"/>
     </row>
     <row r="93" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="94" spans="2:24" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="95" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="96" spans="2:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F97" s="163"/>
-      <c r="G97" s="163"/>
-      <c r="H97" s="163"/>
-      <c r="I97" s="163"/>
-      <c r="J97" s="163"/>
-      <c r="K97" s="163"/>
-      <c r="L97" s="163"/>
-      <c r="M97" s="163"/>
-      <c r="N97" s="163"/>
-      <c r="O97" s="163"/>
-      <c r="W97" s="97"/>
+      <c r="F97" s="160"/>
+      <c r="G97" s="160"/>
+      <c r="H97" s="160"/>
+      <c r="I97" s="160"/>
+      <c r="J97" s="160"/>
+      <c r="K97" s="160"/>
+      <c r="L97" s="160"/>
+      <c r="M97" s="160"/>
+      <c r="N97" s="160"/>
+      <c r="O97" s="160"/>
+      <c r="W97" s="94"/>
     </row>
     <row r="98" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W98" s="97"/>
+      <c r="W98" s="94"/>
     </row>
     <row r="100" spans="6:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -13656,21 +15131,6 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="46" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625F00BB-3A4D-499B-AF4E-39E4C4F43975}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17220,7 +18680,7 @@
       <c r="M138" s="22"/>
       <c r="N138" s="22"/>
     </row>
-    <row r="139" spans="1:14" ht="36" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>229</v>
       </c>
@@ -17246,7 +18706,7 @@
       <c r="M139" s="22"/>
       <c r="N139" s="22"/>
     </row>
-    <row r="140" spans="1:14" ht="36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>229</v>
       </c>
@@ -17272,7 +18732,7 @@
       <c r="M140" s="22"/>
       <c r="N140" s="22"/>
     </row>
-    <row r="141" spans="1:14" ht="36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>229</v>
       </c>
@@ -17298,7 +18758,7 @@
       <c r="M141" s="22"/>
       <c r="N141" s="22"/>
     </row>
-    <row r="142" spans="1:14" ht="36" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>229</v>
       </c>
@@ -17324,7 +18784,7 @@
       <c r="M142" s="22"/>
       <c r="N142" s="22"/>
     </row>
-    <row r="143" spans="1:14" ht="36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>229</v>
       </c>
@@ -17413,21 +18873,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9539726064EB647A486ECAE6A8D513E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aa9d00565841b7531e93953212f8705c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cd6f8ff5-cd79-4d23-bab8-c57789527dcf" xmlns:ns3="a3065947-0070-40a4-af96-7ed7bf5d4c14" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aaf89d3705b2f6bb377037d19ddc3bee" ns2:_="" ns3:_="">
     <xsd:import namespace="cd6f8ff5-cd79-4d23-bab8-c57789527dcf"/>
@@ -17632,7 +19077,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B050282D-CF12-448A-8306-1D4D671BAC7D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cd6f8ff5-cd79-4d23-bab8-c57789527dcf"/>
+    <ds:schemaRef ds:uri="a3065947-0070-40a4-af96-7ed7bf5d4c14"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31FAAA58-AFCA-4268-AEC1-83ECDDB73B54}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -17649,29 +19128,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BA5AFEC-4C52-4B71-95A6-1FE1FA4F56A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B050282D-CF12-448A-8306-1D4D671BAC7D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cd6f8ff5-cd79-4d23-bab8-c57789527dcf"/>
-    <ds:schemaRef ds:uri="a3065947-0070-40a4-af96-7ed7bf5d4c14"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>